--- a/data/Output_Results/Output_Results.xlsx
+++ b/data/Output_Results/Output_Results.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,7 +473,7 @@
         <v>7.9992</v>
       </c>
       <c r="F2">
-        <v>12.59580445444938</v>
+        <v>12.53627379404095</v>
       </c>
       <c r="G2">
         <v>6.1821</v>
@@ -508,7 +508,7 @@
         <v>7.283300000000001</v>
       </c>
       <c r="F3">
-        <v>7.778575650489154</v>
+        <v>10.53248830291427</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -528,7 +528,7 @@
         <v>6.736899999999999</v>
       </c>
       <c r="F4">
-        <v>4.826055027956943</v>
+        <v>8.735131225465915</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -548,7 +548,7 @@
         <v>6.420400000000001</v>
       </c>
       <c r="F5">
-        <v>4.217358705117918</v>
+        <v>7.135607213602678</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -568,7 +568,7 @@
         <v>6.2752</v>
       </c>
       <c r="F6">
-        <v>2.984377520078545</v>
+        <v>5.928421737432684</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -588,7 +588,7 @@
         <v>6.3839</v>
       </c>
       <c r="F7">
-        <v>4.151910589040283</v>
+        <v>6.668324830698831</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -608,7 +608,7 @@
         <v>6.574</v>
       </c>
       <c r="F8">
-        <v>6.074672526428854</v>
+        <v>7.413418779073546</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -628,7 +628,7 @@
         <v>6.959000000000001</v>
       </c>
       <c r="F9">
-        <v>6.436577168976187</v>
+        <v>7.390829069475289</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -648,7 +648,7 @@
         <v>7.706600000000001</v>
       </c>
       <c r="F10">
-        <v>8.432509799524677</v>
+        <v>8.071445453951235</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -668,7 +668,7 @@
         <v>8.414700000000002</v>
       </c>
       <c r="F11">
-        <v>8.626425321603536</v>
+        <v>8.219820317660844</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -688,7 +688,7 @@
         <v>9.204699999999999</v>
       </c>
       <c r="F12">
-        <v>8.815297506062807</v>
+        <v>8.690332137866587</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -708,7 +708,7 @@
         <v>9.658299999999999</v>
       </c>
       <c r="F13">
-        <v>8.799044500429927</v>
+        <v>9.270867072870459</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -728,7 +728,7 @@
         <v>10.1641</v>
       </c>
       <c r="F14">
-        <v>8.721738663977401</v>
+        <v>10.6594251747969</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -748,7 +748,7 @@
         <v>10.4753</v>
       </c>
       <c r="F15">
-        <v>10.46609435361035</v>
+        <v>12.09533101825184</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -768,7 +768,7 @@
         <v>10.5639</v>
       </c>
       <c r="F16">
-        <v>10.67213040800783</v>
+        <v>12.55300572823778</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -788,7 +788,7 @@
         <v>10.8216</v>
       </c>
       <c r="F17">
-        <v>9.183228258489608</v>
+        <v>11.83971188209057</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -808,7 +808,7 @@
         <v>11.6775</v>
       </c>
       <c r="F18">
-        <v>12.1930315967444</v>
+        <v>11.65114960567999</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -828,7 +828,7 @@
         <v>12.7517</v>
       </c>
       <c r="F19">
-        <v>12.90284499001868</v>
+        <v>11.7165985236959</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -848,7 +848,7 @@
         <v>12.3547</v>
       </c>
       <c r="F20">
-        <v>11.35994233205497</v>
+        <v>11.38772443930467</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -868,7 +868,7 @@
         <v>11.8053</v>
       </c>
       <c r="F21">
-        <v>10.9920871759991</v>
+        <v>11.52360652347526</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -888,7 +888,7 @@
         <v>11.3524</v>
       </c>
       <c r="F22">
-        <v>9.626269690323706</v>
+        <v>10.75659968059023</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -908,7 +908,7 @@
         <v>10.6582</v>
       </c>
       <c r="F23">
-        <v>7.203953066933215</v>
+        <v>9.898177089028009</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -928,7 +928,7 @@
         <v>9.5991</v>
       </c>
       <c r="F24">
-        <v>6.593165755317493</v>
+        <v>9.532622289380985</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -948,7 +948,487 @@
         <v>8.3978</v>
       </c>
       <c r="F25">
-        <v>8.618206829632667</v>
+        <v>9.685378746236237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>7.2944</v>
+      </c>
+      <c r="F26">
+        <v>7.720190827714293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2023</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>6.6235</v>
+      </c>
+      <c r="F27">
+        <v>6.636059664469909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>2023</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>6.245100000000001</v>
+      </c>
+      <c r="F28">
+        <v>6.106222223524306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>2023</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>6.1798</v>
+      </c>
+      <c r="F29">
+        <v>6.098377212921822</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>2023</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>6.1821</v>
+      </c>
+      <c r="F30">
+        <v>6.036544939746203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>2023</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6.4055</v>
+      </c>
+      <c r="F31">
+        <v>6.530616626831696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>2023</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>6.7265</v>
+      </c>
+      <c r="F32">
+        <v>8.061139089078027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>2023</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>7.161</v>
+      </c>
+      <c r="F33">
+        <v>8.472994963590521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2023</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>7.8137</v>
+      </c>
+      <c r="F34">
+        <v>7.625422910009659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>2023</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>8.4137</v>
+      </c>
+      <c r="F35">
+        <v>7.34960038253332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>2023</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>8.831100000000001</v>
+      </c>
+      <c r="F36">
+        <v>7.04452787204603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2023</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>9.234300000000001</v>
+      </c>
+      <c r="F37">
+        <v>7.203231844649067</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>2023</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>9.4726</v>
+      </c>
+      <c r="F38">
+        <v>7.828545488113078</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>2023</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>9.277099999999999</v>
+      </c>
+      <c r="F39">
+        <v>7.715491495743726</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>2023</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>9.139099999999999</v>
+      </c>
+      <c r="F40">
+        <v>8.156598976219939</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>2023</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>9.437199999999999</v>
+      </c>
+      <c r="F41">
+        <v>13.41989944785655</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>2023</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>10.5578</v>
+      </c>
+      <c r="F42">
+        <v>10.00353024066019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2023</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>12.3885</v>
+      </c>
+      <c r="F43">
+        <v>10.32617299707377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>2023</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>12.2862</v>
+      </c>
+      <c r="F44">
+        <v>11.70953749623168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>2023</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>12.0098</v>
+      </c>
+      <c r="F45">
+        <v>12.10077551320174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>2023</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>11.7027</v>
+      </c>
+      <c r="F46">
+        <v>11.58468218074934</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>2023</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>11.0441</v>
+      </c>
+      <c r="F47">
+        <v>11.61205267163229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2023</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>9.929</v>
+      </c>
+      <c r="F48">
+        <v>10.59434043970786</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>2023</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>8.495199999999999</v>
+      </c>
+      <c r="F49">
+        <v>9.040878995249372</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +1438,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1021,7 +1501,7 @@
         <v>7.9992</v>
       </c>
       <c r="F2">
-        <v>8.491808178695303</v>
+        <v>7.266053620402738</v>
       </c>
       <c r="G2">
         <v>11.1983</v>
@@ -1056,7 +1536,7 @@
         <v>7.283300000000001</v>
       </c>
       <c r="F3">
-        <v>4.905045593379622</v>
+        <v>4.881156637923789</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1076,7 +1556,7 @@
         <v>6.736899999999999</v>
       </c>
       <c r="F4">
-        <v>3.400187776747674</v>
+        <v>3.524027176842421</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1096,7 +1576,7 @@
         <v>6.420400000000001</v>
       </c>
       <c r="F5">
-        <v>2.713059114747727</v>
+        <v>3.016315845488549</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1116,7 +1596,7 @@
         <v>6.2752</v>
       </c>
       <c r="F6">
-        <v>3.167184020787815</v>
+        <v>3.346526492266221</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1136,7 +1616,7 @@
         <v>6.3839</v>
       </c>
       <c r="F7">
-        <v>3.78585349912446</v>
+        <v>3.750246954105481</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1156,7 +1636,7 @@
         <v>6.574</v>
       </c>
       <c r="F8">
-        <v>5.403672518439457</v>
+        <v>5.164637026428399</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1176,7 +1656,7 @@
         <v>6.959000000000001</v>
       </c>
       <c r="F9">
-        <v>6.665784671694713</v>
+        <v>6.350476592340614</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1196,7 +1676,7 @@
         <v>7.706600000000001</v>
       </c>
       <c r="F10">
-        <v>7.179630941382653</v>
+        <v>6.970607582020326</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1216,7 +1696,7 @@
         <v>8.414700000000002</v>
       </c>
       <c r="F11">
-        <v>7.508709013102578</v>
+        <v>7.328937929441582</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1236,7 +1716,7 @@
         <v>9.204699999999999</v>
       </c>
       <c r="F12">
-        <v>7.429724277099125</v>
+        <v>7.631017731675548</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1256,7 +1736,7 @@
         <v>9.658299999999999</v>
       </c>
       <c r="F13">
-        <v>7.939534716435889</v>
+        <v>8.199974608342259</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1276,7 +1756,7 @@
         <v>10.1641</v>
       </c>
       <c r="F14">
-        <v>8.423650986958156</v>
+        <v>8.527238384289735</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1296,7 +1776,7 @@
         <v>10.4753</v>
       </c>
       <c r="F15">
-        <v>8.015074153645998</v>
+        <v>8.299396282437622</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1316,7 +1796,7 @@
         <v>10.5639</v>
       </c>
       <c r="F16">
-        <v>8.428961491643687</v>
+        <v>8.626986869088789</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1336,7 +1816,7 @@
         <v>10.8216</v>
       </c>
       <c r="F17">
-        <v>9.172739464149629</v>
+        <v>9.020023162291336</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1356,7 +1836,7 @@
         <v>11.6775</v>
       </c>
       <c r="F18">
-        <v>9.866452591534385</v>
+        <v>9.854297533547166</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1376,7 +1856,7 @@
         <v>12.7517</v>
       </c>
       <c r="F19">
-        <v>10.13926070572138</v>
+        <v>10.6559210579813</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1396,7 +1876,7 @@
         <v>12.3547</v>
       </c>
       <c r="F20">
-        <v>9.879297402304376</v>
+        <v>10.61880947847225</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1416,7 +1896,7 @@
         <v>11.8053</v>
       </c>
       <c r="F21">
-        <v>10.8044573030869</v>
+        <v>10.89640694344802</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1436,7 +1916,7 @@
         <v>11.3524</v>
       </c>
       <c r="F22">
-        <v>12.02146614695318</v>
+        <v>11.35431390343343</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1456,7 +1936,7 @@
         <v>10.6582</v>
       </c>
       <c r="F23">
-        <v>11.04881266409544</v>
+        <v>10.57784486851861</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1476,7 +1956,7 @@
         <v>9.5991</v>
       </c>
       <c r="F24">
-        <v>10.15472503913256</v>
+        <v>9.958030107136681</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1496,7 +1976,487 @@
         <v>8.3978</v>
       </c>
       <c r="F25">
-        <v>9.000209188226755</v>
+        <v>8.99797000612376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>7.2944</v>
+      </c>
+      <c r="F26">
+        <v>6.728319811685438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2023</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>6.6235</v>
+      </c>
+      <c r="F27">
+        <v>6.066148053793116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>2023</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>6.245100000000001</v>
+      </c>
+      <c r="F28">
+        <v>5.38994488065936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>2023</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>6.1798</v>
+      </c>
+      <c r="F29">
+        <v>5.341991510625279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>2023</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>6.1821</v>
+      </c>
+      <c r="F30">
+        <v>5.87783326020763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>2023</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6.4055</v>
+      </c>
+      <c r="F31">
+        <v>6.815761149842081</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>2023</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>6.7265</v>
+      </c>
+      <c r="F32">
+        <v>7.342617614724527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>2023</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>7.161</v>
+      </c>
+      <c r="F33">
+        <v>7.318282480999351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2023</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>7.8137</v>
+      </c>
+      <c r="F34">
+        <v>7.088250380322454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>2023</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>8.4137</v>
+      </c>
+      <c r="F35">
+        <v>7.584845723908937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>2023</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>8.831100000000001</v>
+      </c>
+      <c r="F36">
+        <v>7.173505144349131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2023</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>9.234300000000001</v>
+      </c>
+      <c r="F37">
+        <v>6.532156681982759</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>2023</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>9.4726</v>
+      </c>
+      <c r="F38">
+        <v>6.366034754668171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>2023</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>9.277099999999999</v>
+      </c>
+      <c r="F39">
+        <v>6.179834686358999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>2023</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>9.139099999999999</v>
+      </c>
+      <c r="F40">
+        <v>5.6346220023684</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>2023</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>9.437199999999999</v>
+      </c>
+      <c r="F41">
+        <v>5.858637603306388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>2023</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>10.5578</v>
+      </c>
+      <c r="F42">
+        <v>6.789319276287936</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2023</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>12.3885</v>
+      </c>
+      <c r="F43">
+        <v>8.306185904048951</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>2023</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>12.2862</v>
+      </c>
+      <c r="F44">
+        <v>9.79017503450129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>2023</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>12.0098</v>
+      </c>
+      <c r="F45">
+        <v>11.060477101917</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>2023</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>11.7027</v>
+      </c>
+      <c r="F46">
+        <v>12.95117023884429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>2023</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>11.0441</v>
+      </c>
+      <c r="F47">
+        <v>14.02623607046385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2023</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>9.929</v>
+      </c>
+      <c r="F48">
+        <v>14.60046165683951</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>2023</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>8.495199999999999</v>
+      </c>
+      <c r="F49">
+        <v>15.57995482723577</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +2466,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1569,7 +2529,7 @@
         <v>7.9992</v>
       </c>
       <c r="F2">
-        <v>8.0021</v>
+        <v>10.0988</v>
       </c>
       <c r="G2">
         <v>8.5425</v>
@@ -1664,7 +2624,7 @@
         <v>6.2752</v>
       </c>
       <c r="F6">
-        <v>5.6688</v>
+        <v>5.757000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1684,7 +2644,7 @@
         <v>6.3839</v>
       </c>
       <c r="F7">
-        <v>6.630100000000001</v>
+        <v>6.3812</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1704,7 +2664,7 @@
         <v>6.574</v>
       </c>
       <c r="F8">
-        <v>7.4272</v>
+        <v>7.2611</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1724,7 +2684,7 @@
         <v>6.959000000000001</v>
       </c>
       <c r="F9">
-        <v>8.495799999999999</v>
+        <v>8.137</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1744,7 +2704,7 @@
         <v>7.706600000000001</v>
       </c>
       <c r="F10">
-        <v>8.756500000000001</v>
+        <v>8.7654</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1764,7 +2724,7 @@
         <v>8.414700000000002</v>
       </c>
       <c r="F11">
-        <v>8.561900000000001</v>
+        <v>9.106100000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1784,7 +2744,7 @@
         <v>9.204699999999999</v>
       </c>
       <c r="F12">
-        <v>7.8917</v>
+        <v>9.198600000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1804,7 +2764,7 @@
         <v>9.658299999999999</v>
       </c>
       <c r="F13">
-        <v>8.8965</v>
+        <v>9.169799999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1824,7 +2784,7 @@
         <v>10.1641</v>
       </c>
       <c r="F14">
-        <v>8.529500000000001</v>
+        <v>8.750299999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1844,7 +2804,7 @@
         <v>10.4753</v>
       </c>
       <c r="F15">
-        <v>8.253200000000001</v>
+        <v>9.108600000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1864,7 +2824,7 @@
         <v>10.5639</v>
       </c>
       <c r="F16">
-        <v>8.2652</v>
+        <v>9.254299999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1884,7 +2844,7 @@
         <v>10.8216</v>
       </c>
       <c r="F17">
-        <v>8.806199999999999</v>
+        <v>9.5054</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1904,7 +2864,7 @@
         <v>11.6775</v>
       </c>
       <c r="F18">
-        <v>9.661299999999999</v>
+        <v>12.3702</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1924,7 +2884,7 @@
         <v>12.7517</v>
       </c>
       <c r="F19">
-        <v>9.8643</v>
+        <v>13.7581</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1944,7 +2904,7 @@
         <v>12.3547</v>
       </c>
       <c r="F20">
-        <v>10.4822</v>
+        <v>14.3479</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1964,7 +2924,7 @@
         <v>11.8053</v>
       </c>
       <c r="F21">
-        <v>13.1371</v>
+        <v>13.7532</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1984,7 +2944,7 @@
         <v>11.3524</v>
       </c>
       <c r="F22">
-        <v>12.8276</v>
+        <v>12.8593</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2004,7 +2964,7 @@
         <v>10.6582</v>
       </c>
       <c r="F23">
-        <v>12.1733</v>
+        <v>12.0255</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2024,7 +2984,7 @@
         <v>9.5991</v>
       </c>
       <c r="F24">
-        <v>10.8179</v>
+        <v>9.786899999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2044,6 +3004,486 @@
         <v>8.3978</v>
       </c>
       <c r="F25">
+        <v>8.6729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>7.2944</v>
+      </c>
+      <c r="F26">
+        <v>7.3234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2023</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>6.6235</v>
+      </c>
+      <c r="F27">
+        <v>6.8803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>2023</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>6.245100000000001</v>
+      </c>
+      <c r="F28">
+        <v>6.6099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>2023</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>6.1798</v>
+      </c>
+      <c r="F29">
+        <v>6.711100000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>2023</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>6.1821</v>
+      </c>
+      <c r="F30">
+        <v>6.7694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>2023</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6.4055</v>
+      </c>
+      <c r="F31">
+        <v>7.281400000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>2023</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>6.7265</v>
+      </c>
+      <c r="F32">
+        <v>8.1655</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>2023</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>7.161</v>
+      </c>
+      <c r="F33">
+        <v>9.176899999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2023</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>7.8137</v>
+      </c>
+      <c r="F34">
+        <v>10.2557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>2023</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>8.4137</v>
+      </c>
+      <c r="F35">
+        <v>10.1393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>2023</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>8.831100000000001</v>
+      </c>
+      <c r="F36">
+        <v>10.1187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2023</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>9.234300000000001</v>
+      </c>
+      <c r="F37">
+        <v>7.833699999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>2023</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>9.4726</v>
+      </c>
+      <c r="F38">
+        <v>7.8486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>2023</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>9.277099999999999</v>
+      </c>
+      <c r="F39">
+        <v>7.6245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>2023</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>9.139099999999999</v>
+      </c>
+      <c r="F40">
+        <v>7.6575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>2023</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>9.437199999999999</v>
+      </c>
+      <c r="F41">
+        <v>7.9972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>2023</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>10.5578</v>
+      </c>
+      <c r="F42">
+        <v>9.071400000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2023</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>12.3885</v>
+      </c>
+      <c r="F43">
+        <v>10.3231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>2023</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>12.2862</v>
+      </c>
+      <c r="F44">
+        <v>11.3793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>2023</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>12.0098</v>
+      </c>
+      <c r="F45">
+        <v>11.6933</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>2023</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>11.7027</v>
+      </c>
+      <c r="F46">
+        <v>11.7112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>2023</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>11.0441</v>
+      </c>
+      <c r="F47">
+        <v>11.0295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2023</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>9.929</v>
+      </c>
+      <c r="F48">
+        <v>10.3663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>2023</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>8.495199999999999</v>
+      </c>
+      <c r="F49">
         <v>9.312200000000001</v>
       </c>
     </row>

--- a/data/Output_Results/Output_Results.xlsx
+++ b/data/Output_Results/Output_Results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
   <si>
     <t>YEAR</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>RMSE (MW)</t>
-  </si>
-  <si>
-    <t>No Saved Results</t>
   </si>
 </sst>
 </file>
@@ -410,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,16 +461,16 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>6.3309</v>
+        <v>7.914599999999999</v>
       </c>
       <c r="F2">
-        <v>6.9414</v>
+        <v>7.063</v>
       </c>
       <c r="G2">
         <v>6.8631</v>
@@ -499,16 +496,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>5.934100000000001</v>
+        <v>7.245</v>
       </c>
       <c r="F3">
-        <v>6.3018</v>
+        <v>6.6325</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -519,16 +516,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>5.5842</v>
+        <v>6.8584</v>
       </c>
       <c r="F4">
-        <v>5.9046</v>
+        <v>6.402</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -539,16 +536,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>5.4875</v>
+        <v>6.7364</v>
       </c>
       <c r="F5">
-        <v>5.7093</v>
+        <v>6.3383</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -559,16 +556,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>5.668900000000001</v>
+        <v>6.7179</v>
       </c>
       <c r="F6">
-        <v>5.6908</v>
+        <v>6.4484</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -579,16 +576,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>6.1405</v>
+        <v>6.9568</v>
       </c>
       <c r="F7">
-        <v>6.0824</v>
+        <v>6.8877</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -599,16 +596,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>6.8542</v>
+        <v>7.5947</v>
       </c>
       <c r="F8">
-        <v>6.8307</v>
+        <v>7.6098</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -619,16 +616,16 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>7.4794</v>
+        <v>8.2676</v>
       </c>
       <c r="F9">
-        <v>7.795</v>
+        <v>8.329800000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -639,16 +636,16 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>7.8124</v>
+        <v>8.7415</v>
       </c>
       <c r="F10">
-        <v>8.3171</v>
+        <v>8.600899999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -659,16 +656,16 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>8.0273</v>
+        <v>8.9116</v>
       </c>
       <c r="F11">
-        <v>8.646100000000001</v>
+        <v>8.7392</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -679,16 +676,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12">
-        <v>8.033300000000001</v>
+        <v>8.9826</v>
       </c>
       <c r="F12">
-        <v>8.734299999999999</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -699,16 +696,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>8.196899999999999</v>
+        <v>9.061299999999999</v>
       </c>
       <c r="F13">
-        <v>8.942500000000001</v>
+        <v>9.0961</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -719,16 +716,16 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14">
-        <v>8.0381</v>
+        <v>9.1555</v>
       </c>
       <c r="F14">
-        <v>9.079000000000001</v>
+        <v>9.163500000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -739,16 +736,16 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15">
-        <v>8.061999999999999</v>
+        <v>8.9436</v>
       </c>
       <c r="F15">
-        <v>9.2187</v>
+        <v>9.167</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -759,16 +756,16 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16">
-        <v>8.167</v>
+        <v>8.972799999999999</v>
       </c>
       <c r="F16">
-        <v>9.4864</v>
+        <v>9.2593</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -779,16 +776,16 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>8.849500000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F17">
-        <v>10.1744</v>
+        <v>9.795400000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -799,16 +796,16 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>9.8154</v>
+        <v>10.3113</v>
       </c>
       <c r="F18">
-        <v>10.99</v>
+        <v>10.7718</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -819,16 +816,16 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19">
-        <v>10.3973</v>
+        <v>11.5498</v>
       </c>
       <c r="F19">
-        <v>11.4852</v>
+        <v>11.3677</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -839,16 +836,16 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20">
-        <v>10.7451</v>
+        <v>11.2884</v>
       </c>
       <c r="F20">
-        <v>11.5715</v>
+        <v>11.5218</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -859,16 +856,16 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>10.6783</v>
+        <v>11.3657</v>
       </c>
       <c r="F21">
-        <v>11.6112</v>
+        <v>11.5102</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -879,16 +876,16 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>10.2287</v>
+        <v>11.347</v>
       </c>
       <c r="F22">
-        <v>11.2052</v>
+        <v>11.2632</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -899,16 +896,16 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>9.466800000000001</v>
+        <v>10.7306</v>
       </c>
       <c r="F23">
-        <v>10.3829</v>
+        <v>10.4005</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -919,16 +916,16 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>8.5036</v>
+        <v>9.903799999999999</v>
       </c>
       <c r="F24">
-        <v>9.1691</v>
+        <v>9.1349</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -939,16 +936,976 @@
         <v>11</v>
       </c>
       <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>8.963600000000001</v>
+      </c>
+      <c r="F25">
+        <v>7.9366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>2024</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>7.618200000000001</v>
-      </c>
-      <c r="F25">
-        <v>7.9585</v>
+      <c r="E26">
+        <v>8.0367</v>
+      </c>
+      <c r="F26">
+        <v>7.5665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2024</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>7.2437</v>
+      </c>
+      <c r="F27">
+        <v>7.1453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>2024</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>6.8955</v>
+      </c>
+      <c r="F28">
+        <v>7.0181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>2024</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>6.660600000000001</v>
+      </c>
+      <c r="F29">
+        <v>7.0351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>2024</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>6.6381</v>
+      </c>
+      <c r="F30">
+        <v>7.0945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>2024</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6.716100000000001</v>
+      </c>
+      <c r="F31">
+        <v>7.4385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>2024</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>7.1301</v>
+      </c>
+      <c r="F32">
+        <v>8.0837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>2024</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>7.856599999999999</v>
+      </c>
+      <c r="F33">
+        <v>8.7049</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2024</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>8.582000000000001</v>
+      </c>
+      <c r="F34">
+        <v>9.000500000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>2024</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>9.331</v>
+      </c>
+      <c r="F35">
+        <v>9.1411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>2024</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>9.741400000000001</v>
+      </c>
+      <c r="F36">
+        <v>9.229100000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2024</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>9.920399999999999</v>
+      </c>
+      <c r="F37">
+        <v>9.388500000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>2024</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>10.0141</v>
+      </c>
+      <c r="F38">
+        <v>9.3842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>2024</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>9.7196</v>
+      </c>
+      <c r="F39">
+        <v>9.433999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>2024</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>9.8765</v>
+      </c>
+      <c r="F40">
+        <v>9.4717</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>2024</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>10.0312</v>
+      </c>
+      <c r="F41">
+        <v>9.955299999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>2024</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>10.8904</v>
+      </c>
+      <c r="F42">
+        <v>10.9261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2024</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>12.2435</v>
+      </c>
+      <c r="F43">
+        <v>11.5456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>2024</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>12.1533</v>
+      </c>
+      <c r="F44">
+        <v>11.6835</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>2024</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>11.7529</v>
+      </c>
+      <c r="F45">
+        <v>11.7298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>2024</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>11.3693</v>
+      </c>
+      <c r="F46">
+        <v>11.576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>2024</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>10.7733</v>
+      </c>
+      <c r="F47">
+        <v>10.7868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2024</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>9.8804</v>
+      </c>
+      <c r="F48">
+        <v>9.5139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>2024</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>8.767200000000001</v>
+      </c>
+      <c r="F49">
+        <v>8.2401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>2024</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>7.9123</v>
+      </c>
+      <c r="F50">
+        <v>7.4711</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>2024</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>7.216900000000001</v>
+      </c>
+      <c r="F51">
+        <v>7.0933</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>2024</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>6.841400000000001</v>
+      </c>
+      <c r="F52">
+        <v>6.9849</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>2024</v>
+      </c>
+      <c r="B53">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>6.701300000000001</v>
+      </c>
+      <c r="F53">
+        <v>6.9594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>2024</v>
+      </c>
+      <c r="B54">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>6.628</v>
+      </c>
+      <c r="F54">
+        <v>7.1729</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>2024</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>6.7752</v>
+      </c>
+      <c r="F55">
+        <v>7.6515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>2024</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>7.1897</v>
+      </c>
+      <c r="F56">
+        <v>8.377700000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>2024</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>7.756200000000001</v>
+      </c>
+      <c r="F57">
+        <v>8.976100000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>2024</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>8.696700000000002</v>
+      </c>
+      <c r="F58">
+        <v>9.282299999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>2024</v>
+      </c>
+      <c r="B59">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>24</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>9.26</v>
+      </c>
+      <c r="F59">
+        <v>9.411199999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>2024</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>24</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>9.587199999999999</v>
+      </c>
+      <c r="F60">
+        <v>9.4999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>2024</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>24</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>9.7035</v>
+      </c>
+      <c r="F61">
+        <v>9.5738</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>2024</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>10.0733</v>
+      </c>
+      <c r="F62">
+        <v>9.425800000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>2024</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>10.4736</v>
+      </c>
+      <c r="F63">
+        <v>9.340199999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>2024</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>10.4216</v>
+      </c>
+      <c r="F64">
+        <v>9.4239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>2024</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>10.8385</v>
+      </c>
+      <c r="F65">
+        <v>10.0592</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>2024</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>11.7544</v>
+      </c>
+      <c r="F66">
+        <v>10.9345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>2024</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>13.3955</v>
+      </c>
+      <c r="F67">
+        <v>11.7615</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>2024</v>
+      </c>
+      <c r="B68">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>19</v>
+      </c>
+      <c r="E68">
+        <v>13.2379</v>
+      </c>
+      <c r="F68">
+        <v>11.9677</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>2024</v>
+      </c>
+      <c r="B69">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>12.6363</v>
+      </c>
+      <c r="F69">
+        <v>12.1393</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>2024</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>24</v>
+      </c>
+      <c r="D70">
+        <v>21</v>
+      </c>
+      <c r="E70">
+        <v>12.475</v>
+      </c>
+      <c r="F70">
+        <v>11.8715</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>2024</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71">
+        <v>22</v>
+      </c>
+      <c r="E71">
+        <v>11.7149</v>
+      </c>
+      <c r="F71">
+        <v>11.1256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>2024</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>24</v>
+      </c>
+      <c r="D72">
+        <v>23</v>
+      </c>
+      <c r="E72">
+        <v>10.4812</v>
+      </c>
+      <c r="F72">
+        <v>9.873100000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>2024</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>24</v>
+      </c>
+      <c r="D73">
+        <v>24</v>
+      </c>
+      <c r="E73">
+        <v>8.9344</v>
+      </c>
+      <c r="F73">
+        <v>8.766500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +1915,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1012,16 +1969,16 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>6.3309</v>
+        <v>7.914599999999999</v>
       </c>
       <c r="F2">
-        <v>7.043</v>
+        <v>7.615</v>
       </c>
       <c r="G2">
         <v>4.2957</v>
@@ -1047,16 +2004,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>5.934100000000001</v>
+        <v>7.245</v>
       </c>
       <c r="F3">
-        <v>6.2885</v>
+        <v>7.0683</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1067,16 +2024,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>5.5842</v>
+        <v>6.8584</v>
       </c>
       <c r="F4">
-        <v>5.8612</v>
+        <v>6.8816</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1087,16 +2044,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>5.4875</v>
+        <v>6.7364</v>
       </c>
       <c r="F5">
-        <v>5.7074</v>
+        <v>6.6232</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1107,16 +2064,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>5.668900000000001</v>
+        <v>6.7179</v>
       </c>
       <c r="F6">
-        <v>5.8377</v>
+        <v>6.8147</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1127,16 +2084,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>6.1405</v>
+        <v>6.9568</v>
       </c>
       <c r="F7">
-        <v>6.2369</v>
+        <v>7.3337</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1147,16 +2104,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>6.8542</v>
+        <v>7.5947</v>
       </c>
       <c r="F8">
-        <v>6.8227</v>
+        <v>8.060700000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1167,16 +2124,16 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>7.4794</v>
+        <v>8.2676</v>
       </c>
       <c r="F9">
-        <v>7.2979</v>
+        <v>8.6549</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1187,16 +2144,16 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>7.8124</v>
+        <v>8.7415</v>
       </c>
       <c r="F10">
-        <v>7.5901</v>
+        <v>8.720700000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1207,16 +2164,16 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>8.0273</v>
+        <v>8.9116</v>
       </c>
       <c r="F11">
-        <v>7.8877</v>
+        <v>8.803000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1227,16 +2184,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12">
-        <v>8.033300000000001</v>
+        <v>8.9826</v>
       </c>
       <c r="F12">
-        <v>8.098100000000001</v>
+        <v>8.788</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1247,16 +2204,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>8.196899999999999</v>
+        <v>9.061299999999999</v>
       </c>
       <c r="F13">
-        <v>8.2348</v>
+        <v>8.655200000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1267,16 +2224,16 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14">
-        <v>8.0381</v>
+        <v>9.1555</v>
       </c>
       <c r="F14">
-        <v>8.1531</v>
+        <v>8.636699999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1287,16 +2244,16 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15">
-        <v>8.061999999999999</v>
+        <v>8.9436</v>
       </c>
       <c r="F15">
-        <v>8.0436</v>
+        <v>8.5939</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1307,16 +2264,16 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16">
-        <v>8.167</v>
+        <v>8.972799999999999</v>
       </c>
       <c r="F16">
-        <v>8.2134</v>
+        <v>8.6699</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1327,16 +2284,16 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>8.849500000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F17">
-        <v>8.6347</v>
+        <v>9.0878</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1347,16 +2304,16 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>9.8154</v>
+        <v>10.3113</v>
       </c>
       <c r="F18">
-        <v>9.5969</v>
+        <v>10.3252</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1367,16 +2324,16 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19">
-        <v>10.3973</v>
+        <v>11.5498</v>
       </c>
       <c r="F19">
-        <v>9.9575</v>
+        <v>11.1849</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1387,16 +2344,16 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20">
-        <v>10.7451</v>
+        <v>11.2884</v>
       </c>
       <c r="F20">
-        <v>9.661099999999999</v>
+        <v>11.1422</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1407,16 +2364,16 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>10.6783</v>
+        <v>11.3657</v>
       </c>
       <c r="F21">
-        <v>9.6897</v>
+        <v>11.1837</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1427,16 +2384,16 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>10.2287</v>
+        <v>11.347</v>
       </c>
       <c r="F22">
-        <v>10.2965</v>
+        <v>10.9009</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1447,16 +2404,16 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>9.466800000000001</v>
+        <v>10.7306</v>
       </c>
       <c r="F23">
-        <v>9.665699999999999</v>
+        <v>10.2273</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1467,16 +2424,16 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>8.5036</v>
+        <v>9.903799999999999</v>
       </c>
       <c r="F24">
-        <v>8.6882</v>
+        <v>9.1051</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1487,16 +2444,976 @@
         <v>11</v>
       </c>
       <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>8.963600000000001</v>
+      </c>
+      <c r="F25">
+        <v>8.2173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>2024</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>7.618200000000001</v>
-      </c>
-      <c r="F25">
-        <v>7.9378</v>
+      <c r="E26">
+        <v>8.0367</v>
+      </c>
+      <c r="F26">
+        <v>7.5443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2024</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>7.2437</v>
+      </c>
+      <c r="F27">
+        <v>6.9556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>2024</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>6.8955</v>
+      </c>
+      <c r="F28">
+        <v>6.6245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>2024</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>6.660600000000001</v>
+      </c>
+      <c r="F29">
+        <v>6.5066</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>2024</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>6.6381</v>
+      </c>
+      <c r="F30">
+        <v>6.5639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>2024</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6.716100000000001</v>
+      </c>
+      <c r="F31">
+        <v>6.8228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>2024</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>7.1301</v>
+      </c>
+      <c r="F32">
+        <v>7.3195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>2024</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>7.856599999999999</v>
+      </c>
+      <c r="F33">
+        <v>8.048999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2024</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>8.582000000000001</v>
+      </c>
+      <c r="F34">
+        <v>8.770300000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>2024</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>9.331</v>
+      </c>
+      <c r="F35">
+        <v>8.898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>2024</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>9.741400000000001</v>
+      </c>
+      <c r="F36">
+        <v>9.1469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2024</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>9.920399999999999</v>
+      </c>
+      <c r="F37">
+        <v>9.5778</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>2024</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>10.0141</v>
+      </c>
+      <c r="F38">
+        <v>9.4893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>2024</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>9.7196</v>
+      </c>
+      <c r="F39">
+        <v>9.4716</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>2024</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>9.8765</v>
+      </c>
+      <c r="F40">
+        <v>9.5731</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>2024</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>10.0312</v>
+      </c>
+      <c r="F41">
+        <v>10.065</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>2024</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>10.8904</v>
+      </c>
+      <c r="F42">
+        <v>11.1266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2024</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>12.2435</v>
+      </c>
+      <c r="F43">
+        <v>11.8922</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>2024</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>12.1533</v>
+      </c>
+      <c r="F44">
+        <v>11.7081</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>2024</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>11.7529</v>
+      </c>
+      <c r="F45">
+        <v>11.4378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>2024</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>11.3693</v>
+      </c>
+      <c r="F46">
+        <v>11.1689</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>2024</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>10.7733</v>
+      </c>
+      <c r="F47">
+        <v>10.2627</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2024</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>9.8804</v>
+      </c>
+      <c r="F48">
+        <v>9.210800000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>2024</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>8.767200000000001</v>
+      </c>
+      <c r="F49">
+        <v>8.293200000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>2024</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>7.9123</v>
+      </c>
+      <c r="F50">
+        <v>7.4097</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>2024</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>7.216900000000001</v>
+      </c>
+      <c r="F51">
+        <v>6.7729</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>2024</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>6.841400000000001</v>
+      </c>
+      <c r="F52">
+        <v>6.5537</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>2024</v>
+      </c>
+      <c r="B53">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>6.701300000000001</v>
+      </c>
+      <c r="F53">
+        <v>6.4203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>2024</v>
+      </c>
+      <c r="B54">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>6.628</v>
+      </c>
+      <c r="F54">
+        <v>6.6018</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>2024</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>6.7752</v>
+      </c>
+      <c r="F55">
+        <v>6.8926</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>2024</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>7.1897</v>
+      </c>
+      <c r="F56">
+        <v>7.2891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>2024</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>7.756200000000001</v>
+      </c>
+      <c r="F57">
+        <v>8.2181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>2024</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>8.696700000000002</v>
+      </c>
+      <c r="F58">
+        <v>8.949</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>2024</v>
+      </c>
+      <c r="B59">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>24</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>9.26</v>
+      </c>
+      <c r="F59">
+        <v>9.096299999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>2024</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>24</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>9.587199999999999</v>
+      </c>
+      <c r="F60">
+        <v>9.274800000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>2024</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>24</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>9.7035</v>
+      </c>
+      <c r="F61">
+        <v>9.606999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>2024</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>10.0733</v>
+      </c>
+      <c r="F62">
+        <v>9.6981</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>2024</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>10.4736</v>
+      </c>
+      <c r="F63">
+        <v>9.6447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>2024</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>10.4216</v>
+      </c>
+      <c r="F64">
+        <v>9.712400000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>2024</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>10.8385</v>
+      </c>
+      <c r="F65">
+        <v>10.1073</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>2024</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>11.7544</v>
+      </c>
+      <c r="F66">
+        <v>10.9515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>2024</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>13.3955</v>
+      </c>
+      <c r="F67">
+        <v>11.8674</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>2024</v>
+      </c>
+      <c r="B68">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>19</v>
+      </c>
+      <c r="E68">
+        <v>13.2379</v>
+      </c>
+      <c r="F68">
+        <v>11.7488</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>2024</v>
+      </c>
+      <c r="B69">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>12.6363</v>
+      </c>
+      <c r="F69">
+        <v>11.6056</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>2024</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>24</v>
+      </c>
+      <c r="D70">
+        <v>21</v>
+      </c>
+      <c r="E70">
+        <v>12.475</v>
+      </c>
+      <c r="F70">
+        <v>11.2067</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>2024</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71">
+        <v>22</v>
+      </c>
+      <c r="E71">
+        <v>11.7149</v>
+      </c>
+      <c r="F71">
+        <v>10.5441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>2024</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>24</v>
+      </c>
+      <c r="D72">
+        <v>23</v>
+      </c>
+      <c r="E72">
+        <v>10.4812</v>
+      </c>
+      <c r="F72">
+        <v>9.5342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>2024</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>24</v>
+      </c>
+      <c r="D73">
+        <v>24</v>
+      </c>
+      <c r="E73">
+        <v>8.9344</v>
+      </c>
+      <c r="F73">
+        <v>8.3286</v>
       </c>
     </row>
   </sheetData>
@@ -1506,18 +3423,1505 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>2024</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7.914599999999999</v>
+      </c>
+      <c r="F2">
+        <v>6.9218</v>
+      </c>
+      <c r="G2">
+        <v>5.2305</v>
+      </c>
+      <c r="H2">
+        <v>0.4522</v>
+      </c>
+      <c r="I2">
+        <v>0.8978</v>
+      </c>
+      <c r="J2">
+        <v>0.3359</v>
+      </c>
+      <c r="K2">
+        <v>0.5796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2024</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>7.245</v>
+      </c>
+      <c r="F3">
+        <v>6.3797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>2024</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>6.8584</v>
+      </c>
+      <c r="F4">
+        <v>6.1406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>2024</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>6.7364</v>
+      </c>
+      <c r="F5">
+        <v>6.0549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>6.7179</v>
+      </c>
+      <c r="F6">
+        <v>6.1772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>2024</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6.9568</v>
+      </c>
+      <c r="F7">
+        <v>6.708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>2024</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>7.5947</v>
+      </c>
+      <c r="F8">
+        <v>7.5295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>2024</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8.2676</v>
+      </c>
+      <c r="F9">
+        <v>8.332700000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>2024</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>8.7415</v>
+      </c>
+      <c r="F10">
+        <v>8.2692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>2024</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>8.9116</v>
+      </c>
+      <c r="F11">
+        <v>8.086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>2024</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>8.9826</v>
+      </c>
+      <c r="F12">
+        <v>7.9867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>2024</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>9.061299999999999</v>
+      </c>
+      <c r="F13">
+        <v>8.142899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>2024</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>9.1555</v>
+      </c>
+      <c r="F14">
+        <v>8.195499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>2024</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>8.9436</v>
+      </c>
+      <c r="F15">
+        <v>8.1777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>8.972799999999999</v>
+      </c>
+      <c r="F16">
+        <v>8.232200000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>2024</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F17">
+        <v>8.845000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>2024</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>10.3113</v>
+      </c>
+      <c r="F18">
+        <v>10.1666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>2024</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>11.5498</v>
+      </c>
+      <c r="F19">
+        <v>11.6073</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>2024</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>11.2884</v>
+      </c>
+      <c r="F20">
+        <v>11.766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>2024</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>11.3657</v>
+      </c>
+      <c r="F21">
+        <v>11.7384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>2024</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>11.347</v>
+      </c>
+      <c r="F22">
+        <v>11.4605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>10.7306</v>
+      </c>
+      <c r="F23">
+        <v>10.784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>2024</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>9.903799999999999</v>
+      </c>
+      <c r="F24">
+        <v>9.582000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>2024</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>8.963600000000001</v>
+      </c>
+      <c r="F25">
+        <v>8.1068</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>2024</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>8.0367</v>
+      </c>
+      <c r="F26">
+        <v>7.1556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2024</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>7.2437</v>
+      </c>
+      <c r="F27">
+        <v>6.5706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>2024</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>6.8955</v>
+      </c>
+      <c r="F28">
+        <v>6.2933</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>2024</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>6.660600000000001</v>
+      </c>
+      <c r="F29">
+        <v>6.1067</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>2024</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>6.6381</v>
+      </c>
+      <c r="F30">
+        <v>6.2103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>2024</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6.716100000000001</v>
+      </c>
+      <c r="F31">
+        <v>6.5152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>2024</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>7.1301</v>
+      </c>
+      <c r="F32">
+        <v>7.1449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>2024</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>7.856599999999999</v>
+      </c>
+      <c r="F33">
+        <v>7.9965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2024</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>8.582000000000001</v>
+      </c>
+      <c r="F34">
+        <v>8.5823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>2024</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>9.331</v>
+      </c>
+      <c r="F35">
+        <v>8.982799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>2024</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>9.741400000000001</v>
+      </c>
+      <c r="F36">
+        <v>9.2506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2024</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>9.920399999999999</v>
+      </c>
+      <c r="F37">
+        <v>9.4048</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>2024</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>10.0141</v>
+      </c>
+      <c r="F38">
+        <v>9.435499999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>2024</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>9.7196</v>
+      </c>
+      <c r="F39">
+        <v>9.220499999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>2024</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>9.8765</v>
+      </c>
+      <c r="F40">
+        <v>9.2933</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>2024</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>10.0312</v>
+      </c>
+      <c r="F41">
+        <v>9.7898</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>2024</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>10.8904</v>
+      </c>
+      <c r="F42">
+        <v>10.4609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2024</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>12.2435</v>
+      </c>
+      <c r="F43">
+        <v>11.5575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>2024</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>12.1533</v>
+      </c>
+      <c r="F44">
+        <v>11.5216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>2024</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>11.7529</v>
+      </c>
+      <c r="F45">
+        <v>11.3481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>2024</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>11.3693</v>
+      </c>
+      <c r="F46">
+        <v>10.9203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>2024</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>10.7733</v>
+      </c>
+      <c r="F47">
+        <v>10.3996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2024</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>9.8804</v>
+      </c>
+      <c r="F48">
+        <v>9.326000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>2024</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>8.767200000000001</v>
+      </c>
+      <c r="F49">
+        <v>8.0281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>2024</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>7.9123</v>
+      </c>
+      <c r="F50">
+        <v>7.1582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>2024</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>7.216900000000001</v>
+      </c>
+      <c r="F51">
+        <v>6.6653</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>2024</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>6.841400000000001</v>
+      </c>
+      <c r="F52">
+        <v>6.2055</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>2024</v>
+      </c>
+      <c r="B53">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>6.701300000000001</v>
+      </c>
+      <c r="F53">
+        <v>6.236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>2024</v>
+      </c>
+      <c r="B54">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>6.628</v>
+      </c>
+      <c r="F54">
+        <v>6.307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>2024</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>6.7752</v>
+      </c>
+      <c r="F55">
+        <v>6.5109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>2024</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>7.1897</v>
+      </c>
+      <c r="F56">
+        <v>6.9649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>2024</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>7.756200000000001</v>
+      </c>
+      <c r="F57">
+        <v>7.8299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>2024</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>8.696700000000002</v>
+      </c>
+      <c r="F58">
+        <v>8.572900000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>2024</v>
+      </c>
+      <c r="B59">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>24</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>9.26</v>
+      </c>
+      <c r="F59">
+        <v>9.0069</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>2024</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>24</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>9.587199999999999</v>
+      </c>
+      <c r="F60">
+        <v>9.266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>2024</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>24</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>9.7035</v>
+      </c>
+      <c r="F61">
+        <v>9.435600000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>2024</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>10.0733</v>
+      </c>
+      <c r="F62">
+        <v>9.5075</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>2024</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>10.4736</v>
+      </c>
+      <c r="F63">
+        <v>9.406499999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>2024</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>10.4216</v>
+      </c>
+      <c r="F64">
+        <v>9.215400000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>2024</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>10.8385</v>
+      </c>
+      <c r="F65">
+        <v>9.6136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>2024</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>11.7544</v>
+      </c>
+      <c r="F66">
+        <v>10.5905</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>2024</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>13.3955</v>
+      </c>
+      <c r="F67">
+        <v>11.6264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>2024</v>
+      </c>
+      <c r="B68">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>19</v>
+      </c>
+      <c r="E68">
+        <v>13.2379</v>
+      </c>
+      <c r="F68">
+        <v>11.5507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>2024</v>
+      </c>
+      <c r="B69">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>12.6363</v>
+      </c>
+      <c r="F69">
+        <v>11.4179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>2024</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>24</v>
+      </c>
+      <c r="D70">
+        <v>21</v>
+      </c>
+      <c r="E70">
+        <v>12.475</v>
+      </c>
+      <c r="F70">
+        <v>10.918</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>2024</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71">
+        <v>22</v>
+      </c>
+      <c r="E71">
+        <v>11.7149</v>
+      </c>
+      <c r="F71">
+        <v>10.161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>2024</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>24</v>
+      </c>
+      <c r="D72">
+        <v>23</v>
+      </c>
+      <c r="E72">
+        <v>10.4812</v>
+      </c>
+      <c r="F72">
+        <v>9.022600000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>2024</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>24</v>
+      </c>
+      <c r="D73">
+        <v>24</v>
+      </c>
+      <c r="E73">
+        <v>8.9344</v>
+      </c>
+      <c r="F73">
+        <v>7.6504</v>
       </c>
     </row>
   </sheetData>
@@ -1527,18 +4931,1505 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>2024</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7.914599999999999</v>
+      </c>
+      <c r="F2">
+        <v>7.7648</v>
+      </c>
+      <c r="G2">
+        <v>8.9581</v>
+      </c>
+      <c r="H2">
+        <v>0.7598</v>
+      </c>
+      <c r="I2">
+        <v>0.6896</v>
+      </c>
+      <c r="J2">
+        <v>0.9782</v>
+      </c>
+      <c r="K2">
+        <v>0.9891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2024</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>7.245</v>
+      </c>
+      <c r="F3">
+        <v>7.0044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>2024</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>6.8584</v>
+      </c>
+      <c r="F4">
+        <v>7.0463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>2024</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>6.7364</v>
+      </c>
+      <c r="F5">
+        <v>6.8523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>6.7179</v>
+      </c>
+      <c r="F6">
+        <v>6.2538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>2024</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6.9568</v>
+      </c>
+      <c r="F7">
+        <v>7.2514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>2024</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>7.5947</v>
+      </c>
+      <c r="F8">
+        <v>7.8869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>2024</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8.2676</v>
+      </c>
+      <c r="F9">
+        <v>8.549300000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>2024</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>8.7415</v>
+      </c>
+      <c r="F10">
+        <v>9.3093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>2024</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>8.9116</v>
+      </c>
+      <c r="F11">
+        <v>9.559100000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>2024</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>8.9826</v>
+      </c>
+      <c r="F12">
+        <v>8.9655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>2024</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>9.061299999999999</v>
+      </c>
+      <c r="F13">
+        <v>9.5334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>2024</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>9.1555</v>
+      </c>
+      <c r="F14">
+        <v>9.0313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>2024</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>8.9436</v>
+      </c>
+      <c r="F15">
+        <v>9.582800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>8.972799999999999</v>
+      </c>
+      <c r="F16">
+        <v>8.468400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>2024</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F17">
+        <v>9.363099999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>2024</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>10.3113</v>
+      </c>
+      <c r="F18">
+        <v>10.1928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>2024</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>11.5498</v>
+      </c>
+      <c r="F19">
+        <v>11.6125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>2024</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>11.2884</v>
+      </c>
+      <c r="F20">
+        <v>12.6775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>2024</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>11.3657</v>
+      </c>
+      <c r="F21">
+        <v>11.7155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>2024</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>11.347</v>
+      </c>
+      <c r="F22">
+        <v>12.4465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>10.7306</v>
+      </c>
+      <c r="F23">
+        <v>11.492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>2024</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>9.903799999999999</v>
+      </c>
+      <c r="F24">
+        <v>10.3004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>2024</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>8.963600000000001</v>
+      </c>
+      <c r="F25">
+        <v>8.9178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>2024</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>8.0367</v>
+      </c>
+      <c r="F26">
+        <v>7.7769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2024</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>7.2437</v>
+      </c>
+      <c r="F27">
+        <v>7.0141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>2024</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>6.8955</v>
+      </c>
+      <c r="F28">
+        <v>7.1164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>2024</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>6.660600000000001</v>
+      </c>
+      <c r="F29">
+        <v>7.3225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>2024</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>6.6381</v>
+      </c>
+      <c r="F30">
+        <v>6.2971</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>2024</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6.716100000000001</v>
+      </c>
+      <c r="F31">
+        <v>7.0905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>2024</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>7.1301</v>
+      </c>
+      <c r="F32">
+        <v>8.236700000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>2024</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>7.856599999999999</v>
+      </c>
+      <c r="F33">
+        <v>8.949199999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2024</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>8.582000000000001</v>
+      </c>
+      <c r="F34">
+        <v>9.979100000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>2024</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>9.331</v>
+      </c>
+      <c r="F35">
+        <v>10.4883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>2024</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>9.741400000000001</v>
+      </c>
+      <c r="F36">
+        <v>10.6879</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2024</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>9.920399999999999</v>
+      </c>
+      <c r="F37">
+        <v>11.3041</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>2024</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>10.0141</v>
+      </c>
+      <c r="F38">
+        <v>11.0679</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>2024</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>9.7196</v>
+      </c>
+      <c r="F39">
+        <v>11.4151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>2024</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>9.8765</v>
+      </c>
+      <c r="F40">
+        <v>10.4893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>2024</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>10.0312</v>
+      </c>
+      <c r="F41">
+        <v>11.3256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>2024</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>10.8904</v>
+      </c>
+      <c r="F42">
+        <v>12.1326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2024</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>12.2435</v>
+      </c>
+      <c r="F43">
+        <v>12.8329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>2024</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>12.1533</v>
+      </c>
+      <c r="F44">
+        <v>13.4999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>2024</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>11.7529</v>
+      </c>
+      <c r="F45">
+        <v>12.3051</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>2024</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>11.3693</v>
+      </c>
+      <c r="F46">
+        <v>12.9205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>2024</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>10.7733</v>
+      </c>
+      <c r="F47">
+        <v>11.9765</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2024</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>9.8804</v>
+      </c>
+      <c r="F48">
+        <v>10.6446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>2024</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>8.767200000000001</v>
+      </c>
+      <c r="F49">
+        <v>9.3741</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>2024</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>7.9123</v>
+      </c>
+      <c r="F50">
+        <v>8.118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>2024</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>7.216900000000001</v>
+      </c>
+      <c r="F51">
+        <v>6.972</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>2024</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>6.841400000000001</v>
+      </c>
+      <c r="F52">
+        <v>7.2452</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>2024</v>
+      </c>
+      <c r="B53">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>6.701300000000001</v>
+      </c>
+      <c r="F53">
+        <v>7.477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>2024</v>
+      </c>
+      <c r="B54">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>6.628</v>
+      </c>
+      <c r="F54">
+        <v>6.4941</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>2024</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>6.7752</v>
+      </c>
+      <c r="F55">
+        <v>7.2124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>2024</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>7.1897</v>
+      </c>
+      <c r="F56">
+        <v>8.351599999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>2024</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>7.756200000000001</v>
+      </c>
+      <c r="F57">
+        <v>9.045400000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>2024</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>8.696700000000002</v>
+      </c>
+      <c r="F58">
+        <v>10.2671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>2024</v>
+      </c>
+      <c r="B59">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>24</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>9.26</v>
+      </c>
+      <c r="F59">
+        <v>10.6142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>2024</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>24</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>9.587199999999999</v>
+      </c>
+      <c r="F60">
+        <v>10.8773</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>2024</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>24</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>9.7035</v>
+      </c>
+      <c r="F61">
+        <v>11.4945</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>2024</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>10.0733</v>
+      </c>
+      <c r="F62">
+        <v>11.1669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>2024</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>10.4736</v>
+      </c>
+      <c r="F63">
+        <v>11.5097</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>2024</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>10.4216</v>
+      </c>
+      <c r="F64">
+        <v>10.8018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>2024</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>10.8385</v>
+      </c>
+      <c r="F65">
+        <v>11.574</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>2024</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>11.7544</v>
+      </c>
+      <c r="F66">
+        <v>12.3326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>2024</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>13.3955</v>
+      </c>
+      <c r="F67">
+        <v>13.1888</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>2024</v>
+      </c>
+      <c r="B68">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>19</v>
+      </c>
+      <c r="E68">
+        <v>13.2379</v>
+      </c>
+      <c r="F68">
+        <v>13.9516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>2024</v>
+      </c>
+      <c r="B69">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>12.6363</v>
+      </c>
+      <c r="F69">
+        <v>12.5064</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>2024</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>24</v>
+      </c>
+      <c r="D70">
+        <v>21</v>
+      </c>
+      <c r="E70">
+        <v>12.475</v>
+      </c>
+      <c r="F70">
+        <v>13.2398</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>2024</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71">
+        <v>22</v>
+      </c>
+      <c r="E71">
+        <v>11.7149</v>
+      </c>
+      <c r="F71">
+        <v>12.3296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>2024</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>24</v>
+      </c>
+      <c r="D72">
+        <v>23</v>
+      </c>
+      <c r="E72">
+        <v>10.4812</v>
+      </c>
+      <c r="F72">
+        <v>11.0109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>2024</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>24</v>
+      </c>
+      <c r="D73">
+        <v>24</v>
+      </c>
+      <c r="E73">
+        <v>8.9344</v>
+      </c>
+      <c r="F73">
+        <v>9.4823</v>
       </c>
     </row>
   </sheetData>

--- a/data/Output_Results/Output_Results.xlsx
+++ b/data/Output_Results/Output_Results.xlsx
@@ -34,7 +34,7 @@
     <t>ACTUAL CONSUMPTION (MW)</t>
   </si>
   <si>
-    <t>PREDICTED CONSUMPTION (MW)</t>
+    <t>FORECASTED CONSUMPTION (MW)</t>
   </si>
   <si>
     <t>MAPE (%)</t>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,31 +461,31 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>7.914599999999999</v>
+        <v>38.1032</v>
       </c>
       <c r="F2">
-        <v>7.063</v>
+        <v>38.9746</v>
       </c>
       <c r="G2">
-        <v>6.8631</v>
+        <v>4.7479</v>
       </c>
       <c r="H2">
-        <v>0.5754</v>
+        <v>2.0713</v>
       </c>
       <c r="I2">
-        <v>0.8307</v>
+        <v>0.9154</v>
       </c>
       <c r="J2">
-        <v>0.5566</v>
+        <v>6.8832</v>
       </c>
       <c r="K2">
-        <v>0.7461</v>
+        <v>2.6236</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -496,16 +496,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>7.245</v>
+        <v>36.8984</v>
       </c>
       <c r="F3">
-        <v>6.6325</v>
+        <v>38.0944</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -516,16 +516,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>6.8584</v>
+        <v>36.3909</v>
       </c>
       <c r="F4">
-        <v>6.402</v>
+        <v>38.0638</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -536,16 +536,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>6.7364</v>
+        <v>36.4938</v>
       </c>
       <c r="F5">
-        <v>6.3383</v>
+        <v>38.2187</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -556,16 +556,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>6.7179</v>
+        <v>37.8486</v>
       </c>
       <c r="F6">
-        <v>6.4484</v>
+        <v>39.6358</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -576,16 +576,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>6.9568</v>
+        <v>41.79239999999999</v>
       </c>
       <c r="F7">
-        <v>6.8877</v>
+        <v>44.4344</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -596,16 +596,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>7.5947</v>
+        <v>48.2516</v>
       </c>
       <c r="F8">
-        <v>7.6098</v>
+        <v>49.9748</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -616,16 +616,16 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>8.2676</v>
+        <v>53.0887</v>
       </c>
       <c r="F9">
-        <v>8.329800000000001</v>
+        <v>52.392</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -636,16 +636,16 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>8.7415</v>
+        <v>50.3875</v>
       </c>
       <c r="F10">
-        <v>8.600899999999999</v>
+        <v>51.6295</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -656,16 +656,16 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>8.9116</v>
+        <v>47.6703</v>
       </c>
       <c r="F11">
-        <v>8.7392</v>
+        <v>50.4449</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -676,16 +676,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12">
-        <v>8.9826</v>
+        <v>46.061</v>
       </c>
       <c r="F12">
-        <v>8.9</v>
+        <v>50.1287</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -696,16 +696,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>9.061299999999999</v>
+        <v>45.274</v>
       </c>
       <c r="F13">
-        <v>9.0961</v>
+        <v>49.8313</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -716,16 +716,16 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14">
-        <v>9.1555</v>
+        <v>43.79430000000001</v>
       </c>
       <c r="F14">
-        <v>9.163500000000001</v>
+        <v>47.9582</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -736,16 +736,16 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15">
-        <v>8.9436</v>
+        <v>42.1337</v>
       </c>
       <c r="F15">
-        <v>9.167</v>
+        <v>45.8652</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -756,16 +756,16 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16">
-        <v>8.972799999999999</v>
+        <v>42.248</v>
       </c>
       <c r="F16">
-        <v>9.2593</v>
+        <v>45.2977</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -776,16 +776,16 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>9.359999999999999</v>
+        <v>44.66160000000001</v>
       </c>
       <c r="F17">
-        <v>9.795400000000001</v>
+        <v>48.3737</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -796,16 +796,16 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>10.3113</v>
+        <v>51.50960000000001</v>
       </c>
       <c r="F18">
-        <v>10.7718</v>
+        <v>54.0988</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -816,16 +816,16 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19">
-        <v>11.5498</v>
+        <v>59.9975</v>
       </c>
       <c r="F19">
-        <v>11.3677</v>
+        <v>58.6858</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -836,16 +836,16 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20">
-        <v>11.2884</v>
+        <v>61.2897</v>
       </c>
       <c r="F20">
-        <v>11.5218</v>
+        <v>60.1231</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -856,16 +856,16 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>11.3657</v>
+        <v>61.2811</v>
       </c>
       <c r="F21">
-        <v>11.5102</v>
+        <v>59.6582</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -876,16 +876,16 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>11.347</v>
+        <v>58.069</v>
       </c>
       <c r="F22">
-        <v>11.2632</v>
+        <v>55.9936</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -896,16 +896,16 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>10.7306</v>
+        <v>52.7439</v>
       </c>
       <c r="F23">
-        <v>10.4005</v>
+        <v>50.2114</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -916,16 +916,16 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>9.903799999999999</v>
+        <v>46.5056</v>
       </c>
       <c r="F24">
-        <v>9.1349</v>
+        <v>43.7483</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -936,16 +936,16 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25">
-        <v>8.963600000000001</v>
+        <v>40.85530000000001</v>
       </c>
       <c r="F25">
-        <v>7.9366</v>
+        <v>39.2051</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -956,16 +956,16 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>8.0367</v>
+        <v>37.2183</v>
       </c>
       <c r="F26">
-        <v>7.5665</v>
+        <v>36.9928</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -976,16 +976,16 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27">
-        <v>7.2437</v>
+        <v>35.7828</v>
       </c>
       <c r="F27">
-        <v>7.1453</v>
+        <v>35.7557</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -996,16 +996,16 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>6.8955</v>
+        <v>34.9216</v>
       </c>
       <c r="F28">
-        <v>7.0181</v>
+        <v>35.2634</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1016,16 +1016,16 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29">
-        <v>6.660600000000001</v>
+        <v>34.7233</v>
       </c>
       <c r="F29">
-        <v>7.0351</v>
+        <v>35.5366</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1036,16 +1036,16 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>6.6381</v>
+        <v>35.7625</v>
       </c>
       <c r="F30">
-        <v>7.0945</v>
+        <v>37.4765</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1056,16 +1056,16 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>6</v>
       </c>
       <c r="E31">
-        <v>6.716100000000001</v>
+        <v>39.5015</v>
       </c>
       <c r="F31">
-        <v>7.4385</v>
+        <v>42.2953</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1076,16 +1076,16 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32">
-        <v>7.1301</v>
+        <v>45.8235</v>
       </c>
       <c r="F32">
-        <v>8.0837</v>
+        <v>46.7635</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1096,16 +1096,16 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33">
-        <v>7.856599999999999</v>
+        <v>50.3383</v>
       </c>
       <c r="F33">
-        <v>8.7049</v>
+        <v>48.9671</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1116,16 +1116,16 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>9</v>
       </c>
       <c r="E34">
-        <v>8.582000000000001</v>
+        <v>48.67140000000001</v>
       </c>
       <c r="F34">
-        <v>9.000500000000001</v>
+        <v>48.9551</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1136,16 +1136,16 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>10</v>
       </c>
       <c r="E35">
-        <v>9.331</v>
+        <v>46.4889</v>
       </c>
       <c r="F35">
-        <v>9.1411</v>
+        <v>48.2752</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1156,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <v>11</v>
       </c>
       <c r="E36">
-        <v>9.741400000000001</v>
+        <v>45.317</v>
       </c>
       <c r="F36">
-        <v>9.229100000000001</v>
+        <v>47.5076</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1176,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37">
-        <v>9.920399999999999</v>
+        <v>45.3564</v>
       </c>
       <c r="F37">
-        <v>9.388500000000001</v>
+        <v>46.5694</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1196,16 +1196,16 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
       <c r="E38">
-        <v>10.0141</v>
+        <v>45.0012</v>
       </c>
       <c r="F38">
-        <v>9.3842</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1216,16 +1216,16 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D39">
         <v>14</v>
       </c>
       <c r="E39">
-        <v>9.7196</v>
+        <v>44.1993</v>
       </c>
       <c r="F39">
-        <v>9.433999999999999</v>
+        <v>44.6776</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1236,16 +1236,16 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <v>15</v>
       </c>
       <c r="E40">
-        <v>9.8765</v>
+        <v>44.3335</v>
       </c>
       <c r="F40">
-        <v>9.4717</v>
+        <v>45.1183</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1256,16 +1256,16 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>16</v>
       </c>
       <c r="E41">
-        <v>10.0312</v>
+        <v>46.47820000000001</v>
       </c>
       <c r="F41">
-        <v>9.955299999999999</v>
+        <v>49.0157</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1276,16 +1276,16 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D42">
         <v>17</v>
       </c>
       <c r="E42">
-        <v>10.8904</v>
+        <v>52.3892</v>
       </c>
       <c r="F42">
-        <v>10.9261</v>
+        <v>54.7944</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1296,16 +1296,16 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>18</v>
       </c>
       <c r="E43">
-        <v>12.2435</v>
+        <v>59.2222</v>
       </c>
       <c r="F43">
-        <v>11.5456</v>
+        <v>58.8503</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1316,16 +1316,16 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D44">
         <v>19</v>
       </c>
       <c r="E44">
-        <v>12.1533</v>
+        <v>59.57980000000001</v>
       </c>
       <c r="F44">
-        <v>11.6835</v>
+        <v>59.5214</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1336,16 +1336,16 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D45">
         <v>20</v>
       </c>
       <c r="E45">
-        <v>11.7529</v>
+        <v>58.93340000000001</v>
       </c>
       <c r="F45">
-        <v>11.7298</v>
+        <v>58.235</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1356,16 +1356,16 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>21</v>
       </c>
       <c r="E46">
-        <v>11.3693</v>
+        <v>55.74939999999999</v>
       </c>
       <c r="F46">
-        <v>11.576</v>
+        <v>54.6086</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1376,16 +1376,16 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>22</v>
       </c>
       <c r="E47">
-        <v>10.7733</v>
+        <v>50.61020000000001</v>
       </c>
       <c r="F47">
-        <v>10.7868</v>
+        <v>49.0218</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1396,16 +1396,16 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D48">
         <v>23</v>
       </c>
       <c r="E48">
-        <v>9.8804</v>
+        <v>44.5155</v>
       </c>
       <c r="F48">
-        <v>9.5139</v>
+        <v>43.2143</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1416,496 +1416,16 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>24</v>
       </c>
       <c r="E49">
-        <v>8.767200000000001</v>
+        <v>39.04400000000001</v>
       </c>
       <c r="F49">
-        <v>8.2401</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>2024</v>
-      </c>
-      <c r="B50">
-        <v>11</v>
-      </c>
-      <c r="C50">
-        <v>24</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>7.9123</v>
-      </c>
-      <c r="F50">
-        <v>7.4711</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>2024</v>
-      </c>
-      <c r="B51">
-        <v>11</v>
-      </c>
-      <c r="C51">
-        <v>24</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>7.216900000000001</v>
-      </c>
-      <c r="F51">
-        <v>7.0933</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>2024</v>
-      </c>
-      <c r="B52">
-        <v>11</v>
-      </c>
-      <c r="C52">
-        <v>24</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>6.841400000000001</v>
-      </c>
-      <c r="F52">
-        <v>6.9849</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>2024</v>
-      </c>
-      <c r="B53">
-        <v>11</v>
-      </c>
-      <c r="C53">
-        <v>24</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <v>6.701300000000001</v>
-      </c>
-      <c r="F53">
-        <v>6.9594</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>2024</v>
-      </c>
-      <c r="B54">
-        <v>11</v>
-      </c>
-      <c r="C54">
-        <v>24</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54">
-        <v>6.628</v>
-      </c>
-      <c r="F54">
-        <v>7.1729</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>2024</v>
-      </c>
-      <c r="B55">
-        <v>11</v>
-      </c>
-      <c r="C55">
-        <v>24</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="E55">
-        <v>6.7752</v>
-      </c>
-      <c r="F55">
-        <v>7.6515</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>2024</v>
-      </c>
-      <c r="B56">
-        <v>11</v>
-      </c>
-      <c r="C56">
-        <v>24</v>
-      </c>
-      <c r="D56">
-        <v>7</v>
-      </c>
-      <c r="E56">
-        <v>7.1897</v>
-      </c>
-      <c r="F56">
-        <v>8.377700000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>2024</v>
-      </c>
-      <c r="B57">
-        <v>11</v>
-      </c>
-      <c r="C57">
-        <v>24</v>
-      </c>
-      <c r="D57">
-        <v>8</v>
-      </c>
-      <c r="E57">
-        <v>7.756200000000001</v>
-      </c>
-      <c r="F57">
-        <v>8.976100000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>2024</v>
-      </c>
-      <c r="B58">
-        <v>11</v>
-      </c>
-      <c r="C58">
-        <v>24</v>
-      </c>
-      <c r="D58">
-        <v>9</v>
-      </c>
-      <c r="E58">
-        <v>8.696700000000002</v>
-      </c>
-      <c r="F58">
-        <v>9.282299999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>2024</v>
-      </c>
-      <c r="B59">
-        <v>11</v>
-      </c>
-      <c r="C59">
-        <v>24</v>
-      </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
-      <c r="E59">
-        <v>9.26</v>
-      </c>
-      <c r="F59">
-        <v>9.411199999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>2024</v>
-      </c>
-      <c r="B60">
-        <v>11</v>
-      </c>
-      <c r="C60">
-        <v>24</v>
-      </c>
-      <c r="D60">
-        <v>11</v>
-      </c>
-      <c r="E60">
-        <v>9.587199999999999</v>
-      </c>
-      <c r="F60">
-        <v>9.4999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>2024</v>
-      </c>
-      <c r="B61">
-        <v>11</v>
-      </c>
-      <c r="C61">
-        <v>24</v>
-      </c>
-      <c r="D61">
-        <v>12</v>
-      </c>
-      <c r="E61">
-        <v>9.7035</v>
-      </c>
-      <c r="F61">
-        <v>9.5738</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>2024</v>
-      </c>
-      <c r="B62">
-        <v>11</v>
-      </c>
-      <c r="C62">
-        <v>24</v>
-      </c>
-      <c r="D62">
-        <v>13</v>
-      </c>
-      <c r="E62">
-        <v>10.0733</v>
-      </c>
-      <c r="F62">
-        <v>9.425800000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>2024</v>
-      </c>
-      <c r="B63">
-        <v>11</v>
-      </c>
-      <c r="C63">
-        <v>24</v>
-      </c>
-      <c r="D63">
-        <v>14</v>
-      </c>
-      <c r="E63">
-        <v>10.4736</v>
-      </c>
-      <c r="F63">
-        <v>9.340199999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>2024</v>
-      </c>
-      <c r="B64">
-        <v>11</v>
-      </c>
-      <c r="C64">
-        <v>24</v>
-      </c>
-      <c r="D64">
-        <v>15</v>
-      </c>
-      <c r="E64">
-        <v>10.4216</v>
-      </c>
-      <c r="F64">
-        <v>9.4239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>2024</v>
-      </c>
-      <c r="B65">
-        <v>11</v>
-      </c>
-      <c r="C65">
-        <v>24</v>
-      </c>
-      <c r="D65">
-        <v>16</v>
-      </c>
-      <c r="E65">
-        <v>10.8385</v>
-      </c>
-      <c r="F65">
-        <v>10.0592</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>2024</v>
-      </c>
-      <c r="B66">
-        <v>11</v>
-      </c>
-      <c r="C66">
-        <v>24</v>
-      </c>
-      <c r="D66">
-        <v>17</v>
-      </c>
-      <c r="E66">
-        <v>11.7544</v>
-      </c>
-      <c r="F66">
-        <v>10.9345</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>2024</v>
-      </c>
-      <c r="B67">
-        <v>11</v>
-      </c>
-      <c r="C67">
-        <v>24</v>
-      </c>
-      <c r="D67">
-        <v>18</v>
-      </c>
-      <c r="E67">
-        <v>13.3955</v>
-      </c>
-      <c r="F67">
-        <v>11.7615</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>2024</v>
-      </c>
-      <c r="B68">
-        <v>11</v>
-      </c>
-      <c r="C68">
-        <v>24</v>
-      </c>
-      <c r="D68">
-        <v>19</v>
-      </c>
-      <c r="E68">
-        <v>13.2379</v>
-      </c>
-      <c r="F68">
-        <v>11.9677</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>2024</v>
-      </c>
-      <c r="B69">
-        <v>11</v>
-      </c>
-      <c r="C69">
-        <v>24</v>
-      </c>
-      <c r="D69">
-        <v>20</v>
-      </c>
-      <c r="E69">
-        <v>12.6363</v>
-      </c>
-      <c r="F69">
-        <v>12.1393</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>2024</v>
-      </c>
-      <c r="B70">
-        <v>11</v>
-      </c>
-      <c r="C70">
-        <v>24</v>
-      </c>
-      <c r="D70">
-        <v>21</v>
-      </c>
-      <c r="E70">
-        <v>12.475</v>
-      </c>
-      <c r="F70">
-        <v>11.8715</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>2024</v>
-      </c>
-      <c r="B71">
-        <v>11</v>
-      </c>
-      <c r="C71">
-        <v>24</v>
-      </c>
-      <c r="D71">
-        <v>22</v>
-      </c>
-      <c r="E71">
-        <v>11.7149</v>
-      </c>
-      <c r="F71">
-        <v>11.1256</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>2024</v>
-      </c>
-      <c r="B72">
-        <v>11</v>
-      </c>
-      <c r="C72">
-        <v>24</v>
-      </c>
-      <c r="D72">
-        <v>23</v>
-      </c>
-      <c r="E72">
-        <v>10.4812</v>
-      </c>
-      <c r="F72">
-        <v>9.873100000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>2024</v>
-      </c>
-      <c r="B73">
-        <v>11</v>
-      </c>
-      <c r="C73">
-        <v>24</v>
-      </c>
-      <c r="D73">
-        <v>24</v>
-      </c>
-      <c r="E73">
-        <v>8.9344</v>
-      </c>
-      <c r="F73">
-        <v>8.766500000000001</v>
+        <v>39.0907</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1435,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1969,31 +1489,31 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>7.914599999999999</v>
+        <v>38.1032</v>
       </c>
       <c r="F2">
-        <v>7.615</v>
+        <v>37.1108</v>
       </c>
       <c r="G2">
-        <v>4.2957</v>
+        <v>3.4679</v>
       </c>
       <c r="H2">
-        <v>0.3822</v>
+        <v>1.5843</v>
       </c>
       <c r="I2">
-        <v>0.9265</v>
+        <v>0.9503</v>
       </c>
       <c r="J2">
-        <v>0.2417</v>
+        <v>4.0419</v>
       </c>
       <c r="K2">
-        <v>0.4916</v>
+        <v>2.0105</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2004,16 +1524,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>7.245</v>
+        <v>36.8984</v>
       </c>
       <c r="F3">
-        <v>7.0683</v>
+        <v>36.2844</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2024,16 +1544,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>6.8584</v>
+        <v>36.3909</v>
       </c>
       <c r="F4">
-        <v>6.8816</v>
+        <v>36.0845</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2044,16 +1564,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>6.7364</v>
+        <v>36.4938</v>
       </c>
       <c r="F5">
-        <v>6.6232</v>
+        <v>36.3615</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2064,16 +1584,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>6.7179</v>
+        <v>37.8486</v>
       </c>
       <c r="F6">
-        <v>6.8147</v>
+        <v>37.5679</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2084,16 +1604,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>6.9568</v>
+        <v>41.79239999999999</v>
       </c>
       <c r="F7">
-        <v>7.3337</v>
+        <v>42.5634</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2104,16 +1624,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>7.5947</v>
+        <v>48.2516</v>
       </c>
       <c r="F8">
-        <v>8.060700000000001</v>
+        <v>49.1716</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2124,16 +1644,16 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>8.2676</v>
+        <v>53.0887</v>
       </c>
       <c r="F9">
-        <v>8.6549</v>
+        <v>53.2136</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2144,16 +1664,16 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>8.7415</v>
+        <v>50.3875</v>
       </c>
       <c r="F10">
-        <v>8.720700000000001</v>
+        <v>50.836</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2164,16 +1684,16 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>8.9116</v>
+        <v>47.6703</v>
       </c>
       <c r="F11">
-        <v>8.803000000000001</v>
+        <v>49.4058</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2184,16 +1704,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12">
-        <v>8.9826</v>
+        <v>46.061</v>
       </c>
       <c r="F12">
-        <v>8.788</v>
+        <v>48.3823</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2204,16 +1724,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>9.061299999999999</v>
+        <v>45.274</v>
       </c>
       <c r="F13">
-        <v>8.655200000000001</v>
+        <v>48.1343</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2224,16 +1744,16 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14">
-        <v>9.1555</v>
+        <v>43.79430000000001</v>
       </c>
       <c r="F14">
-        <v>8.636699999999999</v>
+        <v>46.5555</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2244,16 +1764,16 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15">
-        <v>8.9436</v>
+        <v>42.1337</v>
       </c>
       <c r="F15">
-        <v>8.5939</v>
+        <v>44.0774</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2264,16 +1784,16 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16">
-        <v>8.972799999999999</v>
+        <v>42.248</v>
       </c>
       <c r="F16">
-        <v>8.6699</v>
+        <v>42.9349</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2284,16 +1804,16 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>9.359999999999999</v>
+        <v>44.66160000000001</v>
       </c>
       <c r="F17">
-        <v>9.0878</v>
+        <v>46.0184</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2304,16 +1824,16 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>10.3113</v>
+        <v>51.50960000000001</v>
       </c>
       <c r="F18">
-        <v>10.3252</v>
+        <v>51.7385</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2324,16 +1844,16 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19">
-        <v>11.5498</v>
+        <v>59.9975</v>
       </c>
       <c r="F19">
-        <v>11.1849</v>
+        <v>59.2263</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2344,16 +1864,16 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20">
-        <v>11.2884</v>
+        <v>61.2897</v>
       </c>
       <c r="F20">
-        <v>11.1422</v>
+        <v>60.7876</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2364,16 +1884,16 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>11.3657</v>
+        <v>61.2811</v>
       </c>
       <c r="F21">
-        <v>11.1837</v>
+        <v>60.3192</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2384,16 +1904,16 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>11.347</v>
+        <v>58.069</v>
       </c>
       <c r="F22">
-        <v>10.9009</v>
+        <v>56.5916</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2404,16 +1924,16 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>10.7306</v>
+        <v>52.7439</v>
       </c>
       <c r="F23">
-        <v>10.2273</v>
+        <v>50.7189</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2424,16 +1944,16 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>9.903799999999999</v>
+        <v>46.5056</v>
       </c>
       <c r="F24">
-        <v>9.1051</v>
+        <v>44.8754</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2444,16 +1964,16 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25">
-        <v>8.963600000000001</v>
+        <v>40.85530000000001</v>
       </c>
       <c r="F25">
-        <v>8.2173</v>
+        <v>40.2165</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2464,16 +1984,16 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>8.0367</v>
+        <v>37.2183</v>
       </c>
       <c r="F26">
-        <v>7.5443</v>
+        <v>37.1194</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2484,16 +2004,16 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27">
-        <v>7.2437</v>
+        <v>35.7828</v>
       </c>
       <c r="F27">
-        <v>6.9556</v>
+        <v>35.9512</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2504,16 +2024,16 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>6.8955</v>
+        <v>34.9216</v>
       </c>
       <c r="F28">
-        <v>6.6245</v>
+        <v>35.006</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2524,16 +2044,16 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29">
-        <v>6.660600000000001</v>
+        <v>34.7233</v>
       </c>
       <c r="F29">
-        <v>6.5066</v>
+        <v>35.8561</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2544,16 +2064,16 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>6.6381</v>
+        <v>35.7625</v>
       </c>
       <c r="F30">
-        <v>6.5639</v>
+        <v>37.0872</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2564,16 +2084,16 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>6</v>
       </c>
       <c r="E31">
-        <v>6.716100000000001</v>
+        <v>39.5015</v>
       </c>
       <c r="F31">
-        <v>6.8228</v>
+        <v>41.0467</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2584,16 +2104,16 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32">
-        <v>7.1301</v>
+        <v>45.8235</v>
       </c>
       <c r="F32">
-        <v>7.3195</v>
+        <v>45.1937</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2604,16 +2124,16 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33">
-        <v>7.856599999999999</v>
+        <v>50.3383</v>
       </c>
       <c r="F33">
-        <v>8.048999999999999</v>
+        <v>48.7458</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2624,16 +2144,16 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>9</v>
       </c>
       <c r="E34">
-        <v>8.582000000000001</v>
+        <v>48.67140000000001</v>
       </c>
       <c r="F34">
-        <v>8.770300000000001</v>
+        <v>46.967</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2644,16 +2164,16 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>10</v>
       </c>
       <c r="E35">
-        <v>9.331</v>
+        <v>46.4889</v>
       </c>
       <c r="F35">
-        <v>8.898</v>
+        <v>45.621</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2664,16 +2184,16 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <v>11</v>
       </c>
       <c r="E36">
-        <v>9.741400000000001</v>
+        <v>45.317</v>
       </c>
       <c r="F36">
-        <v>9.1469</v>
+        <v>45.1124</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2684,16 +2204,16 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37">
-        <v>9.920399999999999</v>
+        <v>45.3564</v>
       </c>
       <c r="F37">
-        <v>9.5778</v>
+        <v>44.9759</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2704,16 +2224,16 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
       <c r="E38">
-        <v>10.0141</v>
+        <v>45.0012</v>
       </c>
       <c r="F38">
-        <v>9.4893</v>
+        <v>44.3562</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2724,16 +2244,16 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D39">
         <v>14</v>
       </c>
       <c r="E39">
-        <v>9.7196</v>
+        <v>44.1993</v>
       </c>
       <c r="F39">
-        <v>9.4716</v>
+        <v>43.2862</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2744,16 +2264,16 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <v>15</v>
       </c>
       <c r="E40">
-        <v>9.8765</v>
+        <v>44.3335</v>
       </c>
       <c r="F40">
-        <v>9.5731</v>
+        <v>43.1263</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2764,16 +2284,16 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>16</v>
       </c>
       <c r="E41">
-        <v>10.0312</v>
+        <v>46.47820000000001</v>
       </c>
       <c r="F41">
-        <v>10.065</v>
+        <v>45.1061</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2784,16 +2304,16 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D42">
         <v>17</v>
       </c>
       <c r="E42">
-        <v>10.8904</v>
+        <v>52.3892</v>
       </c>
       <c r="F42">
-        <v>11.1266</v>
+        <v>50.5407</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2804,16 +2324,16 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>18</v>
       </c>
       <c r="E43">
-        <v>12.2435</v>
+        <v>59.2222</v>
       </c>
       <c r="F43">
-        <v>11.8922</v>
+        <v>56.6405</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2824,16 +2344,16 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D44">
         <v>19</v>
       </c>
       <c r="E44">
-        <v>12.1533</v>
+        <v>59.57980000000001</v>
       </c>
       <c r="F44">
-        <v>11.7081</v>
+        <v>57.1124</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2844,16 +2364,16 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D45">
         <v>20</v>
       </c>
       <c r="E45">
-        <v>11.7529</v>
+        <v>58.93340000000001</v>
       </c>
       <c r="F45">
-        <v>11.4378</v>
+        <v>57.1783</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2864,16 +2384,16 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>21</v>
       </c>
       <c r="E46">
-        <v>11.3693</v>
+        <v>55.74939999999999</v>
       </c>
       <c r="F46">
-        <v>11.1689</v>
+        <v>52.9739</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2884,16 +2404,16 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>22</v>
       </c>
       <c r="E47">
-        <v>10.7733</v>
+        <v>50.61020000000001</v>
       </c>
       <c r="F47">
-        <v>10.2627</v>
+        <v>48.426</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2904,16 +2424,16 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D48">
         <v>23</v>
       </c>
       <c r="E48">
-        <v>9.8804</v>
+        <v>44.5155</v>
       </c>
       <c r="F48">
-        <v>9.210800000000001</v>
+        <v>42.3057</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2924,496 +2444,16 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>24</v>
       </c>
       <c r="E49">
-        <v>8.767200000000001</v>
+        <v>39.04400000000001</v>
       </c>
       <c r="F49">
-        <v>8.293200000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>2024</v>
-      </c>
-      <c r="B50">
-        <v>11</v>
-      </c>
-      <c r="C50">
-        <v>24</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>7.9123</v>
-      </c>
-      <c r="F50">
-        <v>7.4097</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>2024</v>
-      </c>
-      <c r="B51">
-        <v>11</v>
-      </c>
-      <c r="C51">
-        <v>24</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>7.216900000000001</v>
-      </c>
-      <c r="F51">
-        <v>6.7729</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>2024</v>
-      </c>
-      <c r="B52">
-        <v>11</v>
-      </c>
-      <c r="C52">
-        <v>24</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>6.841400000000001</v>
-      </c>
-      <c r="F52">
-        <v>6.5537</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>2024</v>
-      </c>
-      <c r="B53">
-        <v>11</v>
-      </c>
-      <c r="C53">
-        <v>24</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <v>6.701300000000001</v>
-      </c>
-      <c r="F53">
-        <v>6.4203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>2024</v>
-      </c>
-      <c r="B54">
-        <v>11</v>
-      </c>
-      <c r="C54">
-        <v>24</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54">
-        <v>6.628</v>
-      </c>
-      <c r="F54">
-        <v>6.6018</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>2024</v>
-      </c>
-      <c r="B55">
-        <v>11</v>
-      </c>
-      <c r="C55">
-        <v>24</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="E55">
-        <v>6.7752</v>
-      </c>
-      <c r="F55">
-        <v>6.8926</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>2024</v>
-      </c>
-      <c r="B56">
-        <v>11</v>
-      </c>
-      <c r="C56">
-        <v>24</v>
-      </c>
-      <c r="D56">
-        <v>7</v>
-      </c>
-      <c r="E56">
-        <v>7.1897</v>
-      </c>
-      <c r="F56">
-        <v>7.2891</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>2024</v>
-      </c>
-      <c r="B57">
-        <v>11</v>
-      </c>
-      <c r="C57">
-        <v>24</v>
-      </c>
-      <c r="D57">
-        <v>8</v>
-      </c>
-      <c r="E57">
-        <v>7.756200000000001</v>
-      </c>
-      <c r="F57">
-        <v>8.2181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>2024</v>
-      </c>
-      <c r="B58">
-        <v>11</v>
-      </c>
-      <c r="C58">
-        <v>24</v>
-      </c>
-      <c r="D58">
-        <v>9</v>
-      </c>
-      <c r="E58">
-        <v>8.696700000000002</v>
-      </c>
-      <c r="F58">
-        <v>8.949</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>2024</v>
-      </c>
-      <c r="B59">
-        <v>11</v>
-      </c>
-      <c r="C59">
-        <v>24</v>
-      </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
-      <c r="E59">
-        <v>9.26</v>
-      </c>
-      <c r="F59">
-        <v>9.096299999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>2024</v>
-      </c>
-      <c r="B60">
-        <v>11</v>
-      </c>
-      <c r="C60">
-        <v>24</v>
-      </c>
-      <c r="D60">
-        <v>11</v>
-      </c>
-      <c r="E60">
-        <v>9.587199999999999</v>
-      </c>
-      <c r="F60">
-        <v>9.274800000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>2024</v>
-      </c>
-      <c r="B61">
-        <v>11</v>
-      </c>
-      <c r="C61">
-        <v>24</v>
-      </c>
-      <c r="D61">
-        <v>12</v>
-      </c>
-      <c r="E61">
-        <v>9.7035</v>
-      </c>
-      <c r="F61">
-        <v>9.606999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>2024</v>
-      </c>
-      <c r="B62">
-        <v>11</v>
-      </c>
-      <c r="C62">
-        <v>24</v>
-      </c>
-      <c r="D62">
-        <v>13</v>
-      </c>
-      <c r="E62">
-        <v>10.0733</v>
-      </c>
-      <c r="F62">
-        <v>9.6981</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>2024</v>
-      </c>
-      <c r="B63">
-        <v>11</v>
-      </c>
-      <c r="C63">
-        <v>24</v>
-      </c>
-      <c r="D63">
-        <v>14</v>
-      </c>
-      <c r="E63">
-        <v>10.4736</v>
-      </c>
-      <c r="F63">
-        <v>9.6447</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>2024</v>
-      </c>
-      <c r="B64">
-        <v>11</v>
-      </c>
-      <c r="C64">
-        <v>24</v>
-      </c>
-      <c r="D64">
-        <v>15</v>
-      </c>
-      <c r="E64">
-        <v>10.4216</v>
-      </c>
-      <c r="F64">
-        <v>9.712400000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>2024</v>
-      </c>
-      <c r="B65">
-        <v>11</v>
-      </c>
-      <c r="C65">
-        <v>24</v>
-      </c>
-      <c r="D65">
-        <v>16</v>
-      </c>
-      <c r="E65">
-        <v>10.8385</v>
-      </c>
-      <c r="F65">
-        <v>10.1073</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>2024</v>
-      </c>
-      <c r="B66">
-        <v>11</v>
-      </c>
-      <c r="C66">
-        <v>24</v>
-      </c>
-      <c r="D66">
-        <v>17</v>
-      </c>
-      <c r="E66">
-        <v>11.7544</v>
-      </c>
-      <c r="F66">
-        <v>10.9515</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>2024</v>
-      </c>
-      <c r="B67">
-        <v>11</v>
-      </c>
-      <c r="C67">
-        <v>24</v>
-      </c>
-      <c r="D67">
-        <v>18</v>
-      </c>
-      <c r="E67">
-        <v>13.3955</v>
-      </c>
-      <c r="F67">
-        <v>11.8674</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>2024</v>
-      </c>
-      <c r="B68">
-        <v>11</v>
-      </c>
-      <c r="C68">
-        <v>24</v>
-      </c>
-      <c r="D68">
-        <v>19</v>
-      </c>
-      <c r="E68">
-        <v>13.2379</v>
-      </c>
-      <c r="F68">
-        <v>11.7488</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>2024</v>
-      </c>
-      <c r="B69">
-        <v>11</v>
-      </c>
-      <c r="C69">
-        <v>24</v>
-      </c>
-      <c r="D69">
-        <v>20</v>
-      </c>
-      <c r="E69">
-        <v>12.6363</v>
-      </c>
-      <c r="F69">
-        <v>11.6056</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>2024</v>
-      </c>
-      <c r="B70">
-        <v>11</v>
-      </c>
-      <c r="C70">
-        <v>24</v>
-      </c>
-      <c r="D70">
-        <v>21</v>
-      </c>
-      <c r="E70">
-        <v>12.475</v>
-      </c>
-      <c r="F70">
-        <v>11.2067</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>2024</v>
-      </c>
-      <c r="B71">
-        <v>11</v>
-      </c>
-      <c r="C71">
-        <v>24</v>
-      </c>
-      <c r="D71">
-        <v>22</v>
-      </c>
-      <c r="E71">
-        <v>11.7149</v>
-      </c>
-      <c r="F71">
-        <v>10.5441</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>2024</v>
-      </c>
-      <c r="B72">
-        <v>11</v>
-      </c>
-      <c r="C72">
-        <v>24</v>
-      </c>
-      <c r="D72">
-        <v>23</v>
-      </c>
-      <c r="E72">
-        <v>10.4812</v>
-      </c>
-      <c r="F72">
-        <v>9.5342</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>2024</v>
-      </c>
-      <c r="B73">
-        <v>11</v>
-      </c>
-      <c r="C73">
-        <v>24</v>
-      </c>
-      <c r="D73">
-        <v>24</v>
-      </c>
-      <c r="E73">
-        <v>8.9344</v>
-      </c>
-      <c r="F73">
-        <v>8.3286</v>
+        <v>38.1714</v>
       </c>
     </row>
   </sheetData>
@@ -3423,7 +2463,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3477,31 +2517,31 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>7.914599999999999</v>
+        <v>38.1032</v>
       </c>
       <c r="F2">
-        <v>6.9218</v>
+        <v>36.8073</v>
       </c>
       <c r="G2">
-        <v>5.2305</v>
+        <v>3.8786</v>
       </c>
       <c r="H2">
-        <v>0.4522</v>
+        <v>1.7862</v>
       </c>
       <c r="I2">
-        <v>0.8978</v>
+        <v>0.9334</v>
       </c>
       <c r="J2">
-        <v>0.3359</v>
+        <v>5.4153</v>
       </c>
       <c r="K2">
-        <v>0.5796</v>
+        <v>2.3271</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3512,16 +2552,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>7.245</v>
+        <v>36.8984</v>
       </c>
       <c r="F3">
-        <v>6.3797</v>
+        <v>35.5694</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3532,16 +2572,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>6.8584</v>
+        <v>36.3909</v>
       </c>
       <c r="F4">
-        <v>6.1406</v>
+        <v>34.8035</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3552,16 +2592,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>6.7364</v>
+        <v>36.4938</v>
       </c>
       <c r="F5">
-        <v>6.0549</v>
+        <v>35.1649</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3572,16 +2612,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>6.7179</v>
+        <v>37.8486</v>
       </c>
       <c r="F6">
-        <v>6.1772</v>
+        <v>36.8373</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3592,16 +2632,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>6.9568</v>
+        <v>41.79239999999999</v>
       </c>
       <c r="F7">
-        <v>6.708</v>
+        <v>41.017</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3612,16 +2652,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>7.5947</v>
+        <v>48.2516</v>
       </c>
       <c r="F8">
-        <v>7.5295</v>
+        <v>47.3629</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3632,16 +2672,16 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>8.2676</v>
+        <v>53.0887</v>
       </c>
       <c r="F9">
-        <v>8.332700000000001</v>
+        <v>51.2759</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3652,16 +2692,16 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>8.7415</v>
+        <v>50.3875</v>
       </c>
       <c r="F10">
-        <v>8.2692</v>
+        <v>49.0694</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3672,16 +2712,16 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>8.9116</v>
+        <v>47.6703</v>
       </c>
       <c r="F11">
-        <v>8.086</v>
+        <v>46.7845</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3692,16 +2732,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12">
-        <v>8.9826</v>
+        <v>46.061</v>
       </c>
       <c r="F12">
-        <v>7.9867</v>
+        <v>45.0988</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3712,16 +2752,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>9.061299999999999</v>
+        <v>45.274</v>
       </c>
       <c r="F13">
-        <v>8.142899999999999</v>
+        <v>44.7631</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3732,16 +2772,16 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14">
-        <v>9.1555</v>
+        <v>43.79430000000001</v>
       </c>
       <c r="F14">
-        <v>8.195499999999999</v>
+        <v>44.1512</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3752,16 +2792,16 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15">
-        <v>8.9436</v>
+        <v>42.1337</v>
       </c>
       <c r="F15">
-        <v>8.1777</v>
+        <v>43.6487</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3772,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16">
-        <v>8.972799999999999</v>
+        <v>42.248</v>
       </c>
       <c r="F16">
-        <v>8.232200000000001</v>
+        <v>43.6835</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3792,16 +2832,16 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>9.359999999999999</v>
+        <v>44.66160000000001</v>
       </c>
       <c r="F17">
-        <v>8.845000000000001</v>
+        <v>45.639</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3812,16 +2852,16 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>10.3113</v>
+        <v>51.50960000000001</v>
       </c>
       <c r="F18">
-        <v>10.1666</v>
+        <v>51.9971</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3832,16 +2872,16 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19">
-        <v>11.5498</v>
+        <v>59.9975</v>
       </c>
       <c r="F19">
-        <v>11.6073</v>
+        <v>59.3879</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3852,16 +2892,16 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20">
-        <v>11.2884</v>
+        <v>61.2897</v>
       </c>
       <c r="F20">
-        <v>11.766</v>
+        <v>60.4645</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3872,16 +2912,16 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>11.3657</v>
+        <v>61.2811</v>
       </c>
       <c r="F21">
-        <v>11.7384</v>
+        <v>60.1716</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3892,16 +2932,16 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>11.347</v>
+        <v>58.069</v>
       </c>
       <c r="F22">
-        <v>11.4605</v>
+        <v>56.3383</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3912,16 +2952,16 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>10.7306</v>
+        <v>52.7439</v>
       </c>
       <c r="F23">
-        <v>10.784</v>
+        <v>50.6563</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3932,16 +2972,16 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>9.903799999999999</v>
+        <v>46.5056</v>
       </c>
       <c r="F24">
-        <v>9.582000000000001</v>
+        <v>44.993</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3952,16 +2992,16 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25">
-        <v>8.963600000000001</v>
+        <v>40.85530000000001</v>
       </c>
       <c r="F25">
-        <v>8.1068</v>
+        <v>39.9061</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3972,16 +3012,16 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>8.0367</v>
+        <v>37.2183</v>
       </c>
       <c r="F26">
-        <v>7.1556</v>
+        <v>36.3638</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3992,16 +3032,16 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27">
-        <v>7.2437</v>
+        <v>35.7828</v>
       </c>
       <c r="F27">
-        <v>6.5706</v>
+        <v>35.3419</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4012,16 +3052,16 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>6.8955</v>
+        <v>34.9216</v>
       </c>
       <c r="F28">
-        <v>6.2933</v>
+        <v>34.897</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4032,16 +3072,16 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29">
-        <v>6.660600000000001</v>
+        <v>34.7233</v>
       </c>
       <c r="F29">
-        <v>6.1067</v>
+        <v>34.7859</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4052,16 +3092,16 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>6.6381</v>
+        <v>35.7625</v>
       </c>
       <c r="F30">
-        <v>6.2103</v>
+        <v>36.0454</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4072,16 +3112,16 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>6</v>
       </c>
       <c r="E31">
-        <v>6.716100000000001</v>
+        <v>39.5015</v>
       </c>
       <c r="F31">
-        <v>6.5152</v>
+        <v>39.94</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4092,16 +3132,16 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32">
-        <v>7.1301</v>
+        <v>45.8235</v>
       </c>
       <c r="F32">
-        <v>7.1449</v>
+        <v>46.4711</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4112,16 +3152,16 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33">
-        <v>7.856599999999999</v>
+        <v>50.3383</v>
       </c>
       <c r="F33">
-        <v>7.9965</v>
+        <v>49.9693</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4132,16 +3172,16 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>9</v>
       </c>
       <c r="E34">
-        <v>8.582000000000001</v>
+        <v>48.67140000000001</v>
       </c>
       <c r="F34">
-        <v>8.5823</v>
+        <v>47.968</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4152,16 +3192,16 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>10</v>
       </c>
       <c r="E35">
-        <v>9.331</v>
+        <v>46.4889</v>
       </c>
       <c r="F35">
-        <v>8.982799999999999</v>
+        <v>45.7614</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4172,16 +3212,16 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <v>11</v>
       </c>
       <c r="E36">
-        <v>9.741400000000001</v>
+        <v>45.317</v>
       </c>
       <c r="F36">
-        <v>9.2506</v>
+        <v>44.4259</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4192,16 +3232,16 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37">
-        <v>9.920399999999999</v>
+        <v>45.3564</v>
       </c>
       <c r="F37">
-        <v>9.4048</v>
+        <v>44.0735</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4212,16 +3252,16 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
       <c r="E38">
-        <v>10.0141</v>
+        <v>45.0012</v>
       </c>
       <c r="F38">
-        <v>9.435499999999999</v>
+        <v>42.6845</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4232,16 +3272,16 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D39">
         <v>14</v>
       </c>
       <c r="E39">
-        <v>9.7196</v>
+        <v>44.1993</v>
       </c>
       <c r="F39">
-        <v>9.220499999999999</v>
+        <v>41.6945</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4252,16 +3292,16 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <v>15</v>
       </c>
       <c r="E40">
-        <v>9.8765</v>
+        <v>44.3335</v>
       </c>
       <c r="F40">
-        <v>9.2933</v>
+        <v>41.5319</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4272,16 +3312,16 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>16</v>
       </c>
       <c r="E41">
-        <v>10.0312</v>
+        <v>46.47820000000001</v>
       </c>
       <c r="F41">
-        <v>9.7898</v>
+        <v>43.8394</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4292,16 +3332,16 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D42">
         <v>17</v>
       </c>
       <c r="E42">
-        <v>10.8904</v>
+        <v>52.3892</v>
       </c>
       <c r="F42">
-        <v>10.4609</v>
+        <v>49.7845</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4312,16 +3352,16 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>18</v>
       </c>
       <c r="E43">
-        <v>12.2435</v>
+        <v>59.2222</v>
       </c>
       <c r="F43">
-        <v>11.5575</v>
+        <v>56.5549</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4332,16 +3372,16 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D44">
         <v>19</v>
       </c>
       <c r="E44">
-        <v>12.1533</v>
+        <v>59.57980000000001</v>
       </c>
       <c r="F44">
-        <v>11.5216</v>
+        <v>58.5122</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4352,16 +3392,16 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D45">
         <v>20</v>
       </c>
       <c r="E45">
-        <v>11.7529</v>
+        <v>58.93340000000001</v>
       </c>
       <c r="F45">
-        <v>11.3481</v>
+        <v>57.873</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4372,16 +3412,16 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>21</v>
       </c>
       <c r="E46">
-        <v>11.3693</v>
+        <v>55.74939999999999</v>
       </c>
       <c r="F46">
-        <v>10.9203</v>
+        <v>54.268</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4392,16 +3432,16 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>22</v>
       </c>
       <c r="E47">
-        <v>10.7733</v>
+        <v>50.61020000000001</v>
       </c>
       <c r="F47">
-        <v>10.3996</v>
+        <v>49.216</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4412,16 +3452,16 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D48">
         <v>23</v>
       </c>
       <c r="E48">
-        <v>9.8804</v>
+        <v>44.5155</v>
       </c>
       <c r="F48">
-        <v>9.326000000000001</v>
+        <v>43.1772</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4432,496 +3472,16 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>24</v>
       </c>
       <c r="E49">
-        <v>8.767200000000001</v>
+        <v>39.04400000000001</v>
       </c>
       <c r="F49">
-        <v>8.0281</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>2024</v>
-      </c>
-      <c r="B50">
-        <v>11</v>
-      </c>
-      <c r="C50">
-        <v>24</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>7.9123</v>
-      </c>
-      <c r="F50">
-        <v>7.1582</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>2024</v>
-      </c>
-      <c r="B51">
-        <v>11</v>
-      </c>
-      <c r="C51">
-        <v>24</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>7.216900000000001</v>
-      </c>
-      <c r="F51">
-        <v>6.6653</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>2024</v>
-      </c>
-      <c r="B52">
-        <v>11</v>
-      </c>
-      <c r="C52">
-        <v>24</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>6.841400000000001</v>
-      </c>
-      <c r="F52">
-        <v>6.2055</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>2024</v>
-      </c>
-      <c r="B53">
-        <v>11</v>
-      </c>
-      <c r="C53">
-        <v>24</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <v>6.701300000000001</v>
-      </c>
-      <c r="F53">
-        <v>6.236</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>2024</v>
-      </c>
-      <c r="B54">
-        <v>11</v>
-      </c>
-      <c r="C54">
-        <v>24</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54">
-        <v>6.628</v>
-      </c>
-      <c r="F54">
-        <v>6.307</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>2024</v>
-      </c>
-      <c r="B55">
-        <v>11</v>
-      </c>
-      <c r="C55">
-        <v>24</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="E55">
-        <v>6.7752</v>
-      </c>
-      <c r="F55">
-        <v>6.5109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>2024</v>
-      </c>
-      <c r="B56">
-        <v>11</v>
-      </c>
-      <c r="C56">
-        <v>24</v>
-      </c>
-      <c r="D56">
-        <v>7</v>
-      </c>
-      <c r="E56">
-        <v>7.1897</v>
-      </c>
-      <c r="F56">
-        <v>6.9649</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>2024</v>
-      </c>
-      <c r="B57">
-        <v>11</v>
-      </c>
-      <c r="C57">
-        <v>24</v>
-      </c>
-      <c r="D57">
-        <v>8</v>
-      </c>
-      <c r="E57">
-        <v>7.756200000000001</v>
-      </c>
-      <c r="F57">
-        <v>7.8299</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>2024</v>
-      </c>
-      <c r="B58">
-        <v>11</v>
-      </c>
-      <c r="C58">
-        <v>24</v>
-      </c>
-      <c r="D58">
-        <v>9</v>
-      </c>
-      <c r="E58">
-        <v>8.696700000000002</v>
-      </c>
-      <c r="F58">
-        <v>8.572900000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>2024</v>
-      </c>
-      <c r="B59">
-        <v>11</v>
-      </c>
-      <c r="C59">
-        <v>24</v>
-      </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
-      <c r="E59">
-        <v>9.26</v>
-      </c>
-      <c r="F59">
-        <v>9.0069</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>2024</v>
-      </c>
-      <c r="B60">
-        <v>11</v>
-      </c>
-      <c r="C60">
-        <v>24</v>
-      </c>
-      <c r="D60">
-        <v>11</v>
-      </c>
-      <c r="E60">
-        <v>9.587199999999999</v>
-      </c>
-      <c r="F60">
-        <v>9.266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>2024</v>
-      </c>
-      <c r="B61">
-        <v>11</v>
-      </c>
-      <c r="C61">
-        <v>24</v>
-      </c>
-      <c r="D61">
-        <v>12</v>
-      </c>
-      <c r="E61">
-        <v>9.7035</v>
-      </c>
-      <c r="F61">
-        <v>9.435600000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>2024</v>
-      </c>
-      <c r="B62">
-        <v>11</v>
-      </c>
-      <c r="C62">
-        <v>24</v>
-      </c>
-      <c r="D62">
-        <v>13</v>
-      </c>
-      <c r="E62">
-        <v>10.0733</v>
-      </c>
-      <c r="F62">
-        <v>9.5075</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>2024</v>
-      </c>
-      <c r="B63">
-        <v>11</v>
-      </c>
-      <c r="C63">
-        <v>24</v>
-      </c>
-      <c r="D63">
-        <v>14</v>
-      </c>
-      <c r="E63">
-        <v>10.4736</v>
-      </c>
-      <c r="F63">
-        <v>9.406499999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>2024</v>
-      </c>
-      <c r="B64">
-        <v>11</v>
-      </c>
-      <c r="C64">
-        <v>24</v>
-      </c>
-      <c r="D64">
-        <v>15</v>
-      </c>
-      <c r="E64">
-        <v>10.4216</v>
-      </c>
-      <c r="F64">
-        <v>9.215400000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>2024</v>
-      </c>
-      <c r="B65">
-        <v>11</v>
-      </c>
-      <c r="C65">
-        <v>24</v>
-      </c>
-      <c r="D65">
-        <v>16</v>
-      </c>
-      <c r="E65">
-        <v>10.8385</v>
-      </c>
-      <c r="F65">
-        <v>9.6136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>2024</v>
-      </c>
-      <c r="B66">
-        <v>11</v>
-      </c>
-      <c r="C66">
-        <v>24</v>
-      </c>
-      <c r="D66">
-        <v>17</v>
-      </c>
-      <c r="E66">
-        <v>11.7544</v>
-      </c>
-      <c r="F66">
-        <v>10.5905</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>2024</v>
-      </c>
-      <c r="B67">
-        <v>11</v>
-      </c>
-      <c r="C67">
-        <v>24</v>
-      </c>
-      <c r="D67">
-        <v>18</v>
-      </c>
-      <c r="E67">
-        <v>13.3955</v>
-      </c>
-      <c r="F67">
-        <v>11.6264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>2024</v>
-      </c>
-      <c r="B68">
-        <v>11</v>
-      </c>
-      <c r="C68">
-        <v>24</v>
-      </c>
-      <c r="D68">
-        <v>19</v>
-      </c>
-      <c r="E68">
-        <v>13.2379</v>
-      </c>
-      <c r="F68">
-        <v>11.5507</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>2024</v>
-      </c>
-      <c r="B69">
-        <v>11</v>
-      </c>
-      <c r="C69">
-        <v>24</v>
-      </c>
-      <c r="D69">
-        <v>20</v>
-      </c>
-      <c r="E69">
-        <v>12.6363</v>
-      </c>
-      <c r="F69">
-        <v>11.4179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>2024</v>
-      </c>
-      <c r="B70">
-        <v>11</v>
-      </c>
-      <c r="C70">
-        <v>24</v>
-      </c>
-      <c r="D70">
-        <v>21</v>
-      </c>
-      <c r="E70">
-        <v>12.475</v>
-      </c>
-      <c r="F70">
-        <v>10.918</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>2024</v>
-      </c>
-      <c r="B71">
-        <v>11</v>
-      </c>
-      <c r="C71">
-        <v>24</v>
-      </c>
-      <c r="D71">
-        <v>22</v>
-      </c>
-      <c r="E71">
-        <v>11.7149</v>
-      </c>
-      <c r="F71">
-        <v>10.161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>2024</v>
-      </c>
-      <c r="B72">
-        <v>11</v>
-      </c>
-      <c r="C72">
-        <v>24</v>
-      </c>
-      <c r="D72">
-        <v>23</v>
-      </c>
-      <c r="E72">
-        <v>10.4812</v>
-      </c>
-      <c r="F72">
-        <v>9.022600000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>2024</v>
-      </c>
-      <c r="B73">
-        <v>11</v>
-      </c>
-      <c r="C73">
-        <v>24</v>
-      </c>
-      <c r="D73">
-        <v>24</v>
-      </c>
-      <c r="E73">
-        <v>8.9344</v>
-      </c>
-      <c r="F73">
-        <v>7.6504</v>
+        <v>38.406</v>
       </c>
     </row>
   </sheetData>
@@ -4931,7 +3491,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4985,31 +3545,31 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>7.914599999999999</v>
+        <v>38.1032</v>
       </c>
       <c r="F2">
-        <v>7.7648</v>
+        <v>35.5611</v>
       </c>
       <c r="G2">
-        <v>8.9581</v>
+        <v>3.4935</v>
       </c>
       <c r="H2">
-        <v>0.7598</v>
+        <v>1.537</v>
       </c>
       <c r="I2">
-        <v>0.6896</v>
+        <v>0.9537</v>
       </c>
       <c r="J2">
-        <v>0.9782</v>
+        <v>3.5927</v>
       </c>
       <c r="K2">
-        <v>0.9891</v>
+        <v>1.8954</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5020,16 +3580,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>7.245</v>
+        <v>36.8984</v>
       </c>
       <c r="F3">
-        <v>7.0044</v>
+        <v>35.4266</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5040,16 +3600,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>6.8584</v>
+        <v>36.3909</v>
       </c>
       <c r="F4">
-        <v>7.0463</v>
+        <v>34.3464</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5060,16 +3620,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>6.7364</v>
+        <v>36.4938</v>
       </c>
       <c r="F5">
-        <v>6.8523</v>
+        <v>34.444</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5080,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>6.7179</v>
+        <v>37.8486</v>
       </c>
       <c r="F6">
-        <v>6.2538</v>
+        <v>36.2205</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5100,16 +3660,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>6.9568</v>
+        <v>41.79239999999999</v>
       </c>
       <c r="F7">
-        <v>7.2514</v>
+        <v>41.8236</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5120,16 +3680,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>7.5947</v>
+        <v>48.2516</v>
       </c>
       <c r="F8">
-        <v>7.8869</v>
+        <v>45.9652</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5140,16 +3700,16 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>8.2676</v>
+        <v>53.0887</v>
       </c>
       <c r="F9">
-        <v>8.549300000000001</v>
+        <v>49.8004</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5160,16 +3720,16 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>8.7415</v>
+        <v>50.3875</v>
       </c>
       <c r="F10">
-        <v>9.3093</v>
+        <v>49.5255</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5180,16 +3740,16 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>8.9116</v>
+        <v>47.6703</v>
       </c>
       <c r="F11">
-        <v>9.559100000000001</v>
+        <v>46.8222</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5200,16 +3760,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12">
-        <v>8.9826</v>
+        <v>46.061</v>
       </c>
       <c r="F12">
-        <v>8.9655</v>
+        <v>45.6767</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5220,16 +3780,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>9.061299999999999</v>
+        <v>45.274</v>
       </c>
       <c r="F13">
-        <v>9.5334</v>
+        <v>44.6586</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5240,16 +3800,16 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14">
-        <v>9.1555</v>
+        <v>43.79430000000001</v>
       </c>
       <c r="F14">
-        <v>9.0313</v>
+        <v>43.1454</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5260,16 +3820,16 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15">
-        <v>8.9436</v>
+        <v>42.1337</v>
       </c>
       <c r="F15">
-        <v>9.582800000000001</v>
+        <v>42.3172</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5280,16 +3840,16 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16">
-        <v>8.972799999999999</v>
+        <v>42.248</v>
       </c>
       <c r="F16">
-        <v>8.468400000000001</v>
+        <v>41.8722</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5300,16 +3860,16 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>9.359999999999999</v>
+        <v>44.66160000000001</v>
       </c>
       <c r="F17">
-        <v>9.363099999999999</v>
+        <v>44.4814</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5320,16 +3880,16 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>10.3113</v>
+        <v>51.50960000000001</v>
       </c>
       <c r="F18">
-        <v>10.1928</v>
+        <v>50.7042</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5340,16 +3900,16 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19">
-        <v>11.5498</v>
+        <v>59.9975</v>
       </c>
       <c r="F19">
-        <v>11.6125</v>
+        <v>58.2564</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5360,16 +3920,16 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20">
-        <v>11.2884</v>
+        <v>61.2897</v>
       </c>
       <c r="F20">
-        <v>12.6775</v>
+        <v>61.1235</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5380,16 +3940,16 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>11.3657</v>
+        <v>61.2811</v>
       </c>
       <c r="F21">
-        <v>11.7155</v>
+        <v>60.4074</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5400,16 +3960,16 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>11.347</v>
+        <v>58.069</v>
       </c>
       <c r="F22">
-        <v>12.4465</v>
+        <v>57.1765</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5420,16 +3980,16 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>10.7306</v>
+        <v>52.7439</v>
       </c>
       <c r="F23">
-        <v>11.492</v>
+        <v>52.1067</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5440,16 +4000,16 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>9.903799999999999</v>
+        <v>46.5056</v>
       </c>
       <c r="F24">
-        <v>10.3004</v>
+        <v>46.0717</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5460,16 +4020,16 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25">
-        <v>8.963600000000001</v>
+        <v>40.85530000000001</v>
       </c>
       <c r="F25">
-        <v>8.9178</v>
+        <v>41.0365</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5480,16 +4040,16 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>8.0367</v>
+        <v>37.2183</v>
       </c>
       <c r="F26">
-        <v>7.7769</v>
+        <v>34.6831</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5500,16 +4060,16 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27">
-        <v>7.2437</v>
+        <v>35.7828</v>
       </c>
       <c r="F27">
-        <v>7.0141</v>
+        <v>34.3433</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5520,16 +4080,16 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>6.8955</v>
+        <v>34.9216</v>
       </c>
       <c r="F28">
-        <v>7.1164</v>
+        <v>33.421</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5540,16 +4100,16 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29">
-        <v>6.660600000000001</v>
+        <v>34.7233</v>
       </c>
       <c r="F29">
-        <v>7.3225</v>
+        <v>33.6234</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5560,16 +4120,16 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>6.6381</v>
+        <v>35.7625</v>
       </c>
       <c r="F30">
-        <v>6.2971</v>
+        <v>35.088</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5580,16 +4140,16 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>6</v>
       </c>
       <c r="E31">
-        <v>6.716100000000001</v>
+        <v>39.5015</v>
       </c>
       <c r="F31">
-        <v>7.0905</v>
+        <v>40.2228</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5600,16 +4160,16 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32">
-        <v>7.1301</v>
+        <v>45.8235</v>
       </c>
       <c r="F32">
-        <v>8.236700000000001</v>
+        <v>43.8908</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5620,16 +4180,16 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33">
-        <v>7.856599999999999</v>
+        <v>50.3383</v>
       </c>
       <c r="F33">
-        <v>8.949199999999999</v>
+        <v>46.8319</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5640,16 +4200,16 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>9</v>
       </c>
       <c r="E34">
-        <v>8.582000000000001</v>
+        <v>48.67140000000001</v>
       </c>
       <c r="F34">
-        <v>9.979100000000001</v>
+        <v>46.4842</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5660,16 +4220,16 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>10</v>
       </c>
       <c r="E35">
-        <v>9.331</v>
+        <v>46.4889</v>
       </c>
       <c r="F35">
-        <v>10.4883</v>
+        <v>44.1046</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5680,16 +4240,16 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <v>11</v>
       </c>
       <c r="E36">
-        <v>9.741400000000001</v>
+        <v>45.317</v>
       </c>
       <c r="F36">
-        <v>10.6879</v>
+        <v>43.6537</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5700,16 +4260,16 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37">
-        <v>9.920399999999999</v>
+        <v>45.3564</v>
       </c>
       <c r="F37">
-        <v>11.3041</v>
+        <v>43.0371</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5720,16 +4280,16 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
       <c r="E38">
-        <v>10.0141</v>
+        <v>45.0012</v>
       </c>
       <c r="F38">
-        <v>11.0679</v>
+        <v>41.806</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5740,16 +4300,16 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D39">
         <v>14</v>
       </c>
       <c r="E39">
-        <v>9.7196</v>
+        <v>44.1993</v>
       </c>
       <c r="F39">
-        <v>11.4151</v>
+        <v>41.5733</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5760,16 +4320,16 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <v>15</v>
       </c>
       <c r="E40">
-        <v>9.8765</v>
+        <v>44.3335</v>
       </c>
       <c r="F40">
-        <v>10.4893</v>
+        <v>41.3764</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5780,16 +4340,16 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>16</v>
       </c>
       <c r="E41">
-        <v>10.0312</v>
+        <v>46.47820000000001</v>
       </c>
       <c r="F41">
-        <v>11.3256</v>
+        <v>44.5173</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5800,16 +4360,16 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D42">
         <v>17</v>
       </c>
       <c r="E42">
-        <v>10.8904</v>
+        <v>52.3892</v>
       </c>
       <c r="F42">
-        <v>12.1326</v>
+        <v>50.6425</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5820,16 +4380,16 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>18</v>
       </c>
       <c r="E43">
-        <v>12.2435</v>
+        <v>59.2222</v>
       </c>
       <c r="F43">
-        <v>12.8329</v>
+        <v>57.8858</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5840,16 +4400,16 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D44">
         <v>19</v>
       </c>
       <c r="E44">
-        <v>12.1533</v>
+        <v>59.57980000000001</v>
       </c>
       <c r="F44">
-        <v>13.4999</v>
+        <v>60.3766</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5860,16 +4420,16 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D45">
         <v>20</v>
       </c>
       <c r="E45">
-        <v>11.7529</v>
+        <v>58.93340000000001</v>
       </c>
       <c r="F45">
-        <v>12.3051</v>
+        <v>59.3291</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5880,16 +4440,16 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>21</v>
       </c>
       <c r="E46">
-        <v>11.3693</v>
+        <v>55.74939999999999</v>
       </c>
       <c r="F46">
-        <v>12.9205</v>
+        <v>55.9341</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5900,16 +4460,16 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>22</v>
       </c>
       <c r="E47">
-        <v>10.7733</v>
+        <v>50.61020000000001</v>
       </c>
       <c r="F47">
-        <v>11.9765</v>
+        <v>50.8118</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5920,16 +4480,16 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D48">
         <v>23</v>
       </c>
       <c r="E48">
-        <v>9.8804</v>
+        <v>44.5155</v>
       </c>
       <c r="F48">
-        <v>10.6446</v>
+        <v>44.4401</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5940,496 +4500,16 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>24</v>
       </c>
       <c r="E49">
-        <v>8.767200000000001</v>
+        <v>39.04400000000001</v>
       </c>
       <c r="F49">
-        <v>9.3741</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>2024</v>
-      </c>
-      <c r="B50">
-        <v>11</v>
-      </c>
-      <c r="C50">
-        <v>24</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>7.9123</v>
-      </c>
-      <c r="F50">
-        <v>8.118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>2024</v>
-      </c>
-      <c r="B51">
-        <v>11</v>
-      </c>
-      <c r="C51">
-        <v>24</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>7.216900000000001</v>
-      </c>
-      <c r="F51">
-        <v>6.972</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>2024</v>
-      </c>
-      <c r="B52">
-        <v>11</v>
-      </c>
-      <c r="C52">
-        <v>24</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>6.841400000000001</v>
-      </c>
-      <c r="F52">
-        <v>7.2452</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>2024</v>
-      </c>
-      <c r="B53">
-        <v>11</v>
-      </c>
-      <c r="C53">
-        <v>24</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <v>6.701300000000001</v>
-      </c>
-      <c r="F53">
-        <v>7.477</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>2024</v>
-      </c>
-      <c r="B54">
-        <v>11</v>
-      </c>
-      <c r="C54">
-        <v>24</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54">
-        <v>6.628</v>
-      </c>
-      <c r="F54">
-        <v>6.4941</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>2024</v>
-      </c>
-      <c r="B55">
-        <v>11</v>
-      </c>
-      <c r="C55">
-        <v>24</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="E55">
-        <v>6.7752</v>
-      </c>
-      <c r="F55">
-        <v>7.2124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>2024</v>
-      </c>
-      <c r="B56">
-        <v>11</v>
-      </c>
-      <c r="C56">
-        <v>24</v>
-      </c>
-      <c r="D56">
-        <v>7</v>
-      </c>
-      <c r="E56">
-        <v>7.1897</v>
-      </c>
-      <c r="F56">
-        <v>8.351599999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>2024</v>
-      </c>
-      <c r="B57">
-        <v>11</v>
-      </c>
-      <c r="C57">
-        <v>24</v>
-      </c>
-      <c r="D57">
-        <v>8</v>
-      </c>
-      <c r="E57">
-        <v>7.756200000000001</v>
-      </c>
-      <c r="F57">
-        <v>9.045400000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>2024</v>
-      </c>
-      <c r="B58">
-        <v>11</v>
-      </c>
-      <c r="C58">
-        <v>24</v>
-      </c>
-      <c r="D58">
-        <v>9</v>
-      </c>
-      <c r="E58">
-        <v>8.696700000000002</v>
-      </c>
-      <c r="F58">
-        <v>10.2671</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>2024</v>
-      </c>
-      <c r="B59">
-        <v>11</v>
-      </c>
-      <c r="C59">
-        <v>24</v>
-      </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
-      <c r="E59">
-        <v>9.26</v>
-      </c>
-      <c r="F59">
-        <v>10.6142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>2024</v>
-      </c>
-      <c r="B60">
-        <v>11</v>
-      </c>
-      <c r="C60">
-        <v>24</v>
-      </c>
-      <c r="D60">
-        <v>11</v>
-      </c>
-      <c r="E60">
-        <v>9.587199999999999</v>
-      </c>
-      <c r="F60">
-        <v>10.8773</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>2024</v>
-      </c>
-      <c r="B61">
-        <v>11</v>
-      </c>
-      <c r="C61">
-        <v>24</v>
-      </c>
-      <c r="D61">
-        <v>12</v>
-      </c>
-      <c r="E61">
-        <v>9.7035</v>
-      </c>
-      <c r="F61">
-        <v>11.4945</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>2024</v>
-      </c>
-      <c r="B62">
-        <v>11</v>
-      </c>
-      <c r="C62">
-        <v>24</v>
-      </c>
-      <c r="D62">
-        <v>13</v>
-      </c>
-      <c r="E62">
-        <v>10.0733</v>
-      </c>
-      <c r="F62">
-        <v>11.1669</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>2024</v>
-      </c>
-      <c r="B63">
-        <v>11</v>
-      </c>
-      <c r="C63">
-        <v>24</v>
-      </c>
-      <c r="D63">
-        <v>14</v>
-      </c>
-      <c r="E63">
-        <v>10.4736</v>
-      </c>
-      <c r="F63">
-        <v>11.5097</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>2024</v>
-      </c>
-      <c r="B64">
-        <v>11</v>
-      </c>
-      <c r="C64">
-        <v>24</v>
-      </c>
-      <c r="D64">
-        <v>15</v>
-      </c>
-      <c r="E64">
-        <v>10.4216</v>
-      </c>
-      <c r="F64">
-        <v>10.8018</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>2024</v>
-      </c>
-      <c r="B65">
-        <v>11</v>
-      </c>
-      <c r="C65">
-        <v>24</v>
-      </c>
-      <c r="D65">
-        <v>16</v>
-      </c>
-      <c r="E65">
-        <v>10.8385</v>
-      </c>
-      <c r="F65">
-        <v>11.574</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>2024</v>
-      </c>
-      <c r="B66">
-        <v>11</v>
-      </c>
-      <c r="C66">
-        <v>24</v>
-      </c>
-      <c r="D66">
-        <v>17</v>
-      </c>
-      <c r="E66">
-        <v>11.7544</v>
-      </c>
-      <c r="F66">
-        <v>12.3326</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>2024</v>
-      </c>
-      <c r="B67">
-        <v>11</v>
-      </c>
-      <c r="C67">
-        <v>24</v>
-      </c>
-      <c r="D67">
-        <v>18</v>
-      </c>
-      <c r="E67">
-        <v>13.3955</v>
-      </c>
-      <c r="F67">
-        <v>13.1888</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>2024</v>
-      </c>
-      <c r="B68">
-        <v>11</v>
-      </c>
-      <c r="C68">
-        <v>24</v>
-      </c>
-      <c r="D68">
-        <v>19</v>
-      </c>
-      <c r="E68">
-        <v>13.2379</v>
-      </c>
-      <c r="F68">
-        <v>13.9516</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>2024</v>
-      </c>
-      <c r="B69">
-        <v>11</v>
-      </c>
-      <c r="C69">
-        <v>24</v>
-      </c>
-      <c r="D69">
-        <v>20</v>
-      </c>
-      <c r="E69">
-        <v>12.6363</v>
-      </c>
-      <c r="F69">
-        <v>12.5064</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>2024</v>
-      </c>
-      <c r="B70">
-        <v>11</v>
-      </c>
-      <c r="C70">
-        <v>24</v>
-      </c>
-      <c r="D70">
-        <v>21</v>
-      </c>
-      <c r="E70">
-        <v>12.475</v>
-      </c>
-      <c r="F70">
-        <v>13.2398</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>2024</v>
-      </c>
-      <c r="B71">
-        <v>11</v>
-      </c>
-      <c r="C71">
-        <v>24</v>
-      </c>
-      <c r="D71">
-        <v>22</v>
-      </c>
-      <c r="E71">
-        <v>11.7149</v>
-      </c>
-      <c r="F71">
-        <v>12.3296</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>2024</v>
-      </c>
-      <c r="B72">
-        <v>11</v>
-      </c>
-      <c r="C72">
-        <v>24</v>
-      </c>
-      <c r="D72">
-        <v>23</v>
-      </c>
-      <c r="E72">
-        <v>10.4812</v>
-      </c>
-      <c r="F72">
-        <v>11.0109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>2024</v>
-      </c>
-      <c r="B73">
-        <v>11</v>
-      </c>
-      <c r="C73">
-        <v>24</v>
-      </c>
-      <c r="D73">
-        <v>24</v>
-      </c>
-      <c r="E73">
-        <v>8.9344</v>
-      </c>
-      <c r="F73">
-        <v>9.4823</v>
+        <v>39.644</v>
       </c>
     </row>
   </sheetData>

--- a/data/Output_Results/Output_Results.xlsx
+++ b/data/Output_Results/Output_Results.xlsx
@@ -470,25 +470,25 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>36.9966</v>
+        <v>27.7495</v>
       </c>
       <c r="F2">
-        <v>40.7901</v>
+        <v>29.2955</v>
       </c>
       <c r="G2">
-        <v>5.4334</v>
+        <v>4.717</v>
       </c>
       <c r="H2">
-        <v>3.4681</v>
+        <v>2.0573</v>
       </c>
       <c r="I2">
-        <v>0.8884</v>
+        <v>0.9162</v>
       </c>
       <c r="J2">
-        <v>18.6874</v>
+        <v>6.818</v>
       </c>
       <c r="K2">
-        <v>4.3229</v>
+        <v>2.6111</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -505,10 +505,10 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>35.842</v>
+        <v>27.0479</v>
       </c>
       <c r="F3">
-        <v>39.184</v>
+        <v>28.3807</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -525,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>35.1721</v>
+        <v>26.9133</v>
       </c>
       <c r="F4">
-        <v>38.748</v>
+        <v>27.8581</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -545,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>36.0502</v>
+        <v>27.9602</v>
       </c>
       <c r="F5">
-        <v>39.5109</v>
+        <v>29.2121</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -565,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>39.42060000000001</v>
+        <v>31.2548</v>
       </c>
       <c r="F6">
-        <v>41.8946</v>
+        <v>31.56</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -585,10 +585,10 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>46.4571</v>
+        <v>37.62280000000001</v>
       </c>
       <c r="F7">
-        <v>47.086</v>
+        <v>36.2209</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -605,10 +605,10 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>52.3098</v>
+        <v>43.2752</v>
       </c>
       <c r="F8">
-        <v>52.4403</v>
+        <v>41.2709</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -625,10 +625,10 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>54.49740000000001</v>
+        <v>43.5839</v>
       </c>
       <c r="F9">
-        <v>56.8151</v>
+        <v>43.7902</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>54.49789999999999</v>
+        <v>42.8032</v>
       </c>
       <c r="F10">
-        <v>59.3937</v>
+        <v>44.3937</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -665,10 +665,10 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>54.2899</v>
+        <v>42.6481</v>
       </c>
       <c r="F11">
-        <v>60.1757</v>
+        <v>44.4323</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -685,10 +685,10 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>54.3428</v>
+        <v>42.3475</v>
       </c>
       <c r="F12">
-        <v>60.5084</v>
+        <v>45.2145</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -705,10 +705,10 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>54.8802</v>
+        <v>42.0737</v>
       </c>
       <c r="F13">
-        <v>60.8493</v>
+        <v>45.7401</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -725,10 +725,10 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>54.27270000000001</v>
+        <v>41.2246</v>
       </c>
       <c r="F14">
-        <v>59.788</v>
+        <v>43.752</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -745,10 +745,10 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>54.1088</v>
+        <v>41.1238</v>
       </c>
       <c r="F15">
-        <v>59.2441</v>
+        <v>43.9286</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -765,10 +765,10 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>56.3355</v>
+        <v>42.0184</v>
       </c>
       <c r="F16">
-        <v>59.5634</v>
+        <v>43.4691</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -785,10 +785,10 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>63.11060000000001</v>
+        <v>46.7116</v>
       </c>
       <c r="F17">
-        <v>62.836</v>
+        <v>46.5318</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -805,10 +805,10 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>69.90310000000001</v>
+        <v>52.135</v>
       </c>
       <c r="F18">
-        <v>69.92440000000001</v>
+        <v>51.6574</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -825,10 +825,10 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>72.648</v>
+        <v>54.8764</v>
       </c>
       <c r="F19">
-        <v>74.7629</v>
+        <v>55.4071</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -845,10 +845,10 @@
         <v>19</v>
       </c>
       <c r="E20">
-        <v>72.9759</v>
+        <v>55.574</v>
       </c>
       <c r="F20">
-        <v>76.83969999999999</v>
+        <v>56.7512</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -865,10 +865,10 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>70.1683</v>
+        <v>52.9589</v>
       </c>
       <c r="F21">
-        <v>75.7607</v>
+        <v>55.519</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -885,10 +885,10 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>65.59880000000001</v>
+        <v>48.8494</v>
       </c>
       <c r="F22">
-        <v>71.6576</v>
+        <v>52.474</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -905,10 +905,10 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>59.4683</v>
+        <v>44.065</v>
       </c>
       <c r="F23">
-        <v>64.6319</v>
+        <v>47.1742</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -925,10 +925,10 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>53.86730000000001</v>
+        <v>39.5934</v>
       </c>
       <c r="F24">
-        <v>56.0935</v>
+        <v>41.3011</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -945,10 +945,10 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>49.5671</v>
+        <v>36.2547</v>
       </c>
       <c r="F25">
-        <v>50.0845</v>
+        <v>37.5386</v>
       </c>
     </row>
   </sheetData>
@@ -1018,25 +1018,25 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>36.9966</v>
+        <v>27.7495</v>
       </c>
       <c r="F2">
-        <v>40.7977</v>
+        <v>28.8499</v>
       </c>
       <c r="G2">
-        <v>4.3859</v>
+        <v>3.4341</v>
       </c>
       <c r="H2">
-        <v>2.9343</v>
+        <v>1.5765</v>
       </c>
       <c r="I2">
-        <v>0.9205</v>
+        <v>0.951</v>
       </c>
       <c r="J2">
-        <v>13.3218</v>
+        <v>3.99</v>
       </c>
       <c r="K2">
-        <v>3.6499</v>
+        <v>1.9975</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1053,10 +1053,10 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>35.842</v>
+        <v>27.0479</v>
       </c>
       <c r="F3">
-        <v>37.5879</v>
+        <v>27.4096</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1073,10 +1073,10 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>35.1721</v>
+        <v>26.9133</v>
       </c>
       <c r="F4">
-        <v>34.738</v>
+        <v>27.1431</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1093,10 +1093,10 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>36.0502</v>
+        <v>27.9602</v>
       </c>
       <c r="F5">
-        <v>35.7956</v>
+        <v>27.9593</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1113,10 +1113,10 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>39.42060000000001</v>
+        <v>31.2548</v>
       </c>
       <c r="F6">
-        <v>39.1888</v>
+        <v>30.4562</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1133,10 +1133,10 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>46.4571</v>
+        <v>37.62280000000001</v>
       </c>
       <c r="F7">
-        <v>45.2322</v>
+        <v>36.5583</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1153,10 +1153,10 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>52.3098</v>
+        <v>43.2752</v>
       </c>
       <c r="F8">
-        <v>52.3213</v>
+        <v>40.7718</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1173,10 +1173,10 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>54.49740000000001</v>
+        <v>43.5839</v>
       </c>
       <c r="F9">
-        <v>54.1984</v>
+        <v>43.372</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1193,10 +1193,10 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>54.49789999999999</v>
+        <v>42.8032</v>
       </c>
       <c r="F10">
-        <v>53.5221</v>
+        <v>42.7291</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1213,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>54.2899</v>
+        <v>42.6481</v>
       </c>
       <c r="F11">
-        <v>53.6586</v>
+        <v>42.6201</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1233,10 +1233,10 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>54.3428</v>
+        <v>42.3475</v>
       </c>
       <c r="F12">
-        <v>53.8644</v>
+        <v>42.7258</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1253,10 +1253,10 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>54.8802</v>
+        <v>42.0737</v>
       </c>
       <c r="F13">
-        <v>54.3569</v>
+        <v>42.9527</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1273,10 +1273,10 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>54.27270000000001</v>
+        <v>41.2246</v>
       </c>
       <c r="F14">
-        <v>54.6205</v>
+        <v>41.0502</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1293,10 +1293,10 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>54.1088</v>
+        <v>41.1238</v>
       </c>
       <c r="F15">
-        <v>54.1705</v>
+        <v>38.2691</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1313,10 +1313,10 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>56.3355</v>
+        <v>42.0184</v>
       </c>
       <c r="F16">
-        <v>55.1965</v>
+        <v>40.0918</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1333,10 +1333,10 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>63.11060000000001</v>
+        <v>46.7116</v>
       </c>
       <c r="F17">
-        <v>57.4481</v>
+        <v>43.2641</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1353,10 +1353,10 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>69.90310000000001</v>
+        <v>52.135</v>
       </c>
       <c r="F18">
-        <v>63.6467</v>
+        <v>49.781</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1373,10 +1373,10 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>72.648</v>
+        <v>54.8764</v>
       </c>
       <c r="F19">
-        <v>69.4867</v>
+        <v>55.4016</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1393,10 +1393,10 @@
         <v>19</v>
       </c>
       <c r="E20">
-        <v>72.9759</v>
+        <v>55.574</v>
       </c>
       <c r="F20">
-        <v>70.7615</v>
+        <v>56.7847</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1413,10 +1413,10 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>70.1683</v>
+        <v>52.9589</v>
       </c>
       <c r="F21">
-        <v>67.18389999999999</v>
+        <v>55.7684</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1433,10 +1433,10 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>65.59880000000001</v>
+        <v>48.8494</v>
       </c>
       <c r="F22">
-        <v>64.00539999999999</v>
+        <v>52.3277</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1453,10 +1453,10 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>59.4683</v>
+        <v>44.065</v>
       </c>
       <c r="F23">
-        <v>59.8525</v>
+        <v>48.139</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1473,10 +1473,10 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>53.86730000000001</v>
+        <v>39.5934</v>
       </c>
       <c r="F24">
-        <v>54.6297</v>
+        <v>42.446</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1493,10 +1493,10 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>49.5671</v>
+        <v>36.2547</v>
       </c>
       <c r="F25">
-        <v>50.5581</v>
+        <v>37.7991</v>
       </c>
     </row>
   </sheetData>
@@ -1566,25 +1566,25 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>36.9966</v>
+        <v>27.7495</v>
       </c>
       <c r="F2">
-        <v>41.6055</v>
+        <v>28.646</v>
       </c>
       <c r="G2">
-        <v>4.6602</v>
+        <v>3.8821</v>
       </c>
       <c r="H2">
-        <v>3.0193</v>
+        <v>1.7898</v>
       </c>
       <c r="I2">
-        <v>0.9107</v>
+        <v>0.9328</v>
       </c>
       <c r="J2">
-        <v>14.9554</v>
+        <v>5.4646</v>
       </c>
       <c r="K2">
-        <v>3.8672</v>
+        <v>2.3377</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1601,10 +1601,10 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>35.842</v>
+        <v>27.0479</v>
       </c>
       <c r="F3">
-        <v>40.0658</v>
+        <v>27.6672</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1621,10 +1621,10 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>35.1721</v>
+        <v>26.9133</v>
       </c>
       <c r="F4">
-        <v>39.196</v>
+        <v>27.0012</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1641,10 +1641,10 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>36.0502</v>
+        <v>27.9602</v>
       </c>
       <c r="F5">
-        <v>39.7011</v>
+        <v>27.2671</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1661,10 +1661,10 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>39.42060000000001</v>
+        <v>31.2548</v>
       </c>
       <c r="F6">
-        <v>43.0158</v>
+        <v>29.4776</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1681,10 +1681,10 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>46.4571</v>
+        <v>37.62280000000001</v>
       </c>
       <c r="F7">
-        <v>48.9613</v>
+        <v>34.9496</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1701,10 +1701,10 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>52.3098</v>
+        <v>43.2752</v>
       </c>
       <c r="F8">
-        <v>55.2715</v>
+        <v>40.5985</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1721,10 +1721,10 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>54.49740000000001</v>
+        <v>43.5839</v>
       </c>
       <c r="F9">
-        <v>59.3214</v>
+        <v>42.8236</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1741,10 +1741,10 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>54.49789999999999</v>
+        <v>42.8032</v>
       </c>
       <c r="F10">
-        <v>58.4894</v>
+        <v>41.5504</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1761,10 +1761,10 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>54.2899</v>
+        <v>42.6481</v>
       </c>
       <c r="F11">
-        <v>57.4947</v>
+        <v>40.3829</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1781,10 +1781,10 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>54.3428</v>
+        <v>42.3475</v>
       </c>
       <c r="F12">
-        <v>56.7541</v>
+        <v>40.0905</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1801,10 +1801,10 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>54.8802</v>
+        <v>42.0737</v>
       </c>
       <c r="F13">
-        <v>56.7278</v>
+        <v>39.9084</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1821,10 +1821,10 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>54.27270000000001</v>
+        <v>41.2246</v>
       </c>
       <c r="F14">
-        <v>53.3324</v>
+        <v>39.8353</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1841,10 +1841,10 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>54.1088</v>
+        <v>41.1238</v>
       </c>
       <c r="F15">
-        <v>52.5378</v>
+        <v>40.1736</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1861,10 +1861,10 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>56.3355</v>
+        <v>42.0184</v>
       </c>
       <c r="F16">
-        <v>53.1781</v>
+        <v>40.563</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1881,10 +1881,10 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>63.11060000000001</v>
+        <v>46.7116</v>
       </c>
       <c r="F17">
-        <v>58.2028</v>
+        <v>43.9794</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1901,10 +1901,10 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>69.90310000000001</v>
+        <v>52.135</v>
       </c>
       <c r="F18">
-        <v>65.9444</v>
+        <v>50.0077</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1921,10 +1921,10 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>72.648</v>
+        <v>54.8764</v>
       </c>
       <c r="F19">
-        <v>71.46429999999999</v>
+        <v>55.6136</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1941,10 +1941,10 @@
         <v>19</v>
       </c>
       <c r="E20">
-        <v>72.9759</v>
+        <v>55.574</v>
       </c>
       <c r="F20">
-        <v>72.56270000000001</v>
+        <v>57.1421</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1961,10 +1961,10 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>70.1683</v>
+        <v>52.9589</v>
       </c>
       <c r="F21">
-        <v>71.4624</v>
+        <v>56.2153</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1981,10 +1981,10 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>65.59880000000001</v>
+        <v>48.8494</v>
       </c>
       <c r="F22">
-        <v>68.50320000000001</v>
+        <v>52.6627</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2001,10 +2001,10 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>59.4683</v>
+        <v>44.065</v>
       </c>
       <c r="F23">
-        <v>61.9398</v>
+        <v>47.387</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2021,10 +2021,10 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>53.86730000000001</v>
+        <v>39.5934</v>
       </c>
       <c r="F24">
-        <v>55.7069</v>
+        <v>42.1837</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2041,10 +2041,10 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>49.5671</v>
+        <v>36.2547</v>
       </c>
       <c r="F25">
-        <v>50.5784</v>
+        <v>37.2945</v>
       </c>
     </row>
   </sheetData>
